--- a/paper_1/0_data/Study1_mocklist.xlsx
+++ b/paper_1/0_data/Study1_mocklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gk42fezo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\paper_1\0_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E43953-0DBC-49A5-B8A8-C9B91AC3975F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DAF4A1-F602-4AA7-A645-B4CBFB064945}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="661" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subject_list" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="102">
   <si>
     <t>study</t>
   </si>
@@ -298,12 +298,6 @@
     <t>counter_pers</t>
   </si>
   <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>thema</t>
   </si>
   <si>
@@ -317,6 +311,27 @@
   </si>
   <si>
     <t>rating</t>
+  </si>
+  <si>
+    <t>recording unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glasses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cam1 </t>
+  </si>
+  <si>
+    <t>cam2</t>
+  </si>
+  <si>
+    <t>cam3</t>
+  </si>
+  <si>
+    <t>cam4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ambient </t>
   </si>
 </sst>
 </file>
@@ -848,36 +863,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5028C5C-2C44-425F-8C32-C37BD87DD9AE}">
   <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="11" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.54296875" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" customWidth="1"/>
+    <col min="13" max="13" width="13.26953125" customWidth="1"/>
+    <col min="14" max="14" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="19" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" customWidth="1"/>
+    <col min="24" max="24" width="12.81640625" customWidth="1"/>
+    <col min="25" max="25" width="11.1796875" customWidth="1"/>
     <col min="26" max="26" width="55" customWidth="1"/>
-    <col min="27" max="27" width="65.85546875" customWidth="1"/>
+    <col min="27" max="27" width="65.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -960,7 +975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1041,14 +1056,14 @@
         <v>1</v>
       </c>
       <c r="Z2" s="3" t="str">
-        <f t="shared" ref="Z2:Z13" si="4">CONCATENATE(B2,"_",C2,D2,"_",E2)</f>
+        <f>CONCATENATE(B2,"_",C2,D2,"_",E2)</f>
         <v>Study1_pilot01_expert</v>
       </c>
       <c r="AA2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1098,7 +1113,7 @@
         <v>2000</v>
       </c>
       <c r="Q3" s="3" t="str">
-        <f t="shared" ref="Q3:Q6" si="5">N3&amp;"/"&amp;O3&amp;"/"&amp;P3</f>
+        <f t="shared" ref="Q3:Q6" si="4">N3&amp;"/"&amp;O3&amp;"/"&amp;P3</f>
         <v>1/1/2000</v>
       </c>
       <c r="R3" s="3">
@@ -1111,15 +1126,15 @@
         <v>2020</v>
       </c>
       <c r="U3" s="3" t="str">
-        <f t="shared" ref="U3:U6" si="6">R3&amp;"/"&amp;S3&amp;"/"&amp;T3</f>
+        <f t="shared" ref="U3:U6" si="5">R3&amp;"/"&amp;S3&amp;"/"&amp;T3</f>
         <v>1/1/2020</v>
       </c>
       <c r="V3" s="3">
-        <f t="shared" ref="V3:V13" si="7">DATEDIF(Q3, U3, "m")</f>
+        <f t="shared" ref="V3:V13" si="6">DATEDIF(Q3, U3, "m")</f>
         <v>240</v>
       </c>
       <c r="W3" s="3">
-        <f t="shared" ref="W3:W13" si="8">DATEDIF(Q3, U3, "d")</f>
+        <f t="shared" ref="W3:W13" si="7">DATEDIF(Q3, U3, "d")</f>
         <v>7305</v>
       </c>
       <c r="X3" s="3">
@@ -1129,14 +1144,14 @@
         <v>1</v>
       </c>
       <c r="Z3" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="Z2:Z13" si="8">CONCATENATE(B3,"_",C3,D3,"_",E3)</f>
         <v>Study1_pilot01_expert</v>
       </c>
       <c r="AA3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1186,7 +1201,7 @@
         <v>2000</v>
       </c>
       <c r="Q4" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1/1/2000</v>
       </c>
       <c r="R4" s="3">
@@ -1199,32 +1214,32 @@
         <v>2020</v>
       </c>
       <c r="U4" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V4" s="3">
         <f t="shared" si="6"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V4" s="3">
+        <v>240</v>
+      </c>
+      <c r="W4" s="3">
         <f t="shared" si="7"/>
-        <v>240</v>
-      </c>
-      <c r="W4" s="3">
+        <v>7305</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>7305</v>
-      </c>
-      <c r="X4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="3" t="str">
-        <f t="shared" si="4"/>
         <v>Study1_pilot01_expert</v>
       </c>
       <c r="AA4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1274,7 +1289,7 @@
         <v>2000</v>
       </c>
       <c r="Q5" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1/1/2000</v>
       </c>
       <c r="R5" s="3">
@@ -1287,32 +1302,32 @@
         <v>2020</v>
       </c>
       <c r="U5" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V5" s="3">
         <f t="shared" si="6"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V5" s="3">
+        <v>240</v>
+      </c>
+      <c r="W5" s="3">
         <f t="shared" si="7"/>
-        <v>240</v>
-      </c>
-      <c r="W5" s="3">
+        <v>7305</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>7305</v>
-      </c>
-      <c r="X5" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="3" t="str">
-        <f t="shared" si="4"/>
         <v>Study1_pilot01_expert</v>
       </c>
       <c r="AA5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1362,7 +1377,7 @@
         <v>2000</v>
       </c>
       <c r="Q6" s="3" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1/1/2000</v>
       </c>
       <c r="R6" s="3">
@@ -1375,32 +1390,32 @@
         <v>2020</v>
       </c>
       <c r="U6" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V6" s="3">
         <f t="shared" si="6"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V6" s="3">
+        <v>240</v>
+      </c>
+      <c r="W6" s="3">
         <f t="shared" si="7"/>
-        <v>240</v>
-      </c>
-      <c r="W6" s="3">
+        <v>7305</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z6" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>7305</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z6" s="3" t="str">
-        <f t="shared" si="4"/>
         <v>Study1_pilot02_novice</v>
       </c>
       <c r="AA6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1467,28 +1482,28 @@
         <v>1/1/2020</v>
       </c>
       <c r="V7" s="3">
+        <f t="shared" si="6"/>
+        <v>240</v>
+      </c>
+      <c r="W7" s="3">
         <f t="shared" si="7"/>
-        <v>240</v>
-      </c>
-      <c r="W7" s="3">
+        <v>7305</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z7" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>7305</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z7" s="3" t="str">
-        <f t="shared" si="4"/>
         <v>Study1_pilot02_novice</v>
       </c>
       <c r="AA7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1555,28 +1570,28 @@
         <v>1/1/2020</v>
       </c>
       <c r="V8" s="3">
+        <f t="shared" si="6"/>
+        <v>240</v>
+      </c>
+      <c r="W8" s="3">
         <f t="shared" si="7"/>
-        <v>240</v>
-      </c>
-      <c r="W8" s="3">
+        <v>7305</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z8" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>7305</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z8" s="3" t="str">
-        <f t="shared" si="4"/>
         <v>Study1_pilot02_novice</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1643,28 +1658,28 @@
         <v>1/1/2020</v>
       </c>
       <c r="V9" s="3">
+        <f t="shared" si="6"/>
+        <v>240</v>
+      </c>
+      <c r="W9" s="3">
         <f t="shared" si="7"/>
-        <v>240</v>
-      </c>
-      <c r="W9" s="3">
+        <v>7305</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z9" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>7305</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z9" s="3" t="str">
-        <f t="shared" si="4"/>
         <v>Study1_pilot02_novice</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1731,28 +1746,28 @@
         <v>1/1/2020</v>
       </c>
       <c r="V10" s="3">
+        <f t="shared" si="6"/>
+        <v>240</v>
+      </c>
+      <c r="W10" s="3">
         <f t="shared" si="7"/>
-        <v>240</v>
-      </c>
-      <c r="W10" s="3">
+        <v>7305</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z10" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>7305</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z10" s="3" t="str">
-        <f t="shared" si="4"/>
         <v>Study1_pilot03_novice</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1819,28 +1834,28 @@
         <v>1/1/2020</v>
       </c>
       <c r="V11" s="3">
+        <f t="shared" si="6"/>
+        <v>240</v>
+      </c>
+      <c r="W11" s="3">
         <f t="shared" si="7"/>
-        <v>240</v>
-      </c>
-      <c r="W11" s="3">
+        <v>7305</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z11" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>7305</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z11" s="3" t="str">
-        <f t="shared" si="4"/>
         <v>Study1_pilot03_novice</v>
       </c>
       <c r="AA11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1907,28 +1922,28 @@
         <v>1/1/2020</v>
       </c>
       <c r="V12" s="3">
+        <f t="shared" si="6"/>
+        <v>240</v>
+      </c>
+      <c r="W12" s="3">
         <f t="shared" si="7"/>
-        <v>240</v>
-      </c>
-      <c r="W12" s="3">
+        <v>7305</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z12" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>7305</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z12" s="3" t="str">
-        <f t="shared" si="4"/>
         <v>Study1_pilot03_novice</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1995,28 +2010,28 @@
         <v>1/1/2020</v>
       </c>
       <c r="V13" s="3">
+        <f t="shared" si="6"/>
+        <v>240</v>
+      </c>
+      <c r="W13" s="3">
         <f t="shared" si="7"/>
-        <v>240</v>
-      </c>
-      <c r="W13" s="3">
+        <v>7305</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z13" s="3" t="str">
         <f t="shared" si="8"/>
-        <v>7305</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z13" s="3" t="str">
-        <f t="shared" si="4"/>
         <v>Study1_pilot03_novice</v>
       </c>
       <c r="AA13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2045,7 +2060,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2074,7 +2089,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -2094,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>14</v>
@@ -2162,7 +2177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -2182,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>14</v>
@@ -2250,7 +2265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -2270,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>14</v>
@@ -2338,7 +2353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -2358,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>14</v>
@@ -2426,7 +2441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>5</v>
       </c>
@@ -2446,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>14</v>
@@ -2514,7 +2529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>6</v>
       </c>
@@ -2534,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>14</v>
@@ -2602,7 +2617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>7</v>
       </c>
@@ -2622,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>14</v>
@@ -2690,7 +2705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>8</v>
       </c>
@@ -2710,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>14</v>
@@ -2778,7 +2793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>9</v>
       </c>
@@ -2798,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>14</v>
@@ -2866,7 +2881,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>10</v>
       </c>
@@ -2886,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>14</v>
@@ -2954,7 +2969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>11</v>
       </c>
@@ -2974,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>14</v>
@@ -3042,7 +3057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>12</v>
       </c>
@@ -3062,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>14</v>
@@ -3130,7 +3145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>13</v>
       </c>
@@ -3150,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>14</v>
@@ -3218,7 +3233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>14</v>
       </c>
@@ -3238,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>14</v>
@@ -3306,7 +3321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>15</v>
       </c>
@@ -3326,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>14</v>
@@ -3394,7 +3409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>16</v>
       </c>
@@ -3414,7 +3429,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>14</v>
@@ -3482,7 +3497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>17</v>
       </c>
@@ -3502,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>14</v>
@@ -3570,7 +3585,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>18</v>
       </c>
@@ -3590,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>14</v>
@@ -3658,7 +3673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>19</v>
       </c>
@@ -3678,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>14</v>
@@ -3746,7 +3761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>20</v>
       </c>
@@ -3766,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>14</v>
@@ -3834,7 +3849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>21</v>
       </c>
@@ -3854,7 +3869,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>14</v>
@@ -3922,7 +3937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>22</v>
       </c>
@@ -3942,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>14</v>
@@ -4010,7 +4025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>23</v>
       </c>
@@ -4030,7 +4045,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>14</v>
@@ -4098,7 +4113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>24</v>
       </c>
@@ -4118,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>14</v>
@@ -4186,7 +4201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4215,7 +4230,7 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
     </row>
-    <row r="41" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4244,7 +4259,7 @@
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
     </row>
-    <row r="42" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -4264,10 +4279,10 @@
         <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>14</v>
@@ -4332,7 +4347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -4352,10 +4367,10 @@
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>14</v>
@@ -4420,7 +4435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>3</v>
       </c>
@@ -4440,10 +4455,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>14</v>
@@ -4508,7 +4523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>4</v>
       </c>
@@ -4528,10 +4543,10 @@
         <v>1</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>14</v>
@@ -4596,7 +4611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>5</v>
       </c>
@@ -4684,7 +4699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -4772,7 +4787,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>7</v>
       </c>
@@ -4860,7 +4875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>8</v>
       </c>
@@ -4948,7 +4963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>9</v>
       </c>
@@ -5036,7 +5051,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>10</v>
       </c>
@@ -5124,7 +5139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>11</v>
       </c>
@@ -5212,7 +5227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>12</v>
       </c>
@@ -5300,7 +5315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>13</v>
       </c>
@@ -5388,7 +5403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>14</v>
       </c>
@@ -5476,7 +5491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>15</v>
       </c>
@@ -5564,7 +5579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>16</v>
       </c>
@@ -5652,7 +5667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>17</v>
       </c>
@@ -5740,7 +5755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>18</v>
       </c>
@@ -5828,7 +5843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>19</v>
       </c>
@@ -5916,7 +5931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>20</v>
       </c>
@@ -6004,7 +6019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>21</v>
       </c>
@@ -6092,7 +6107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>22</v>
       </c>
@@ -6180,7 +6195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>23</v>
       </c>
@@ -6268,7 +6283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>24</v>
       </c>
@@ -6356,7 +6371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -6385,7 +6400,7 @@
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
     </row>
-    <row r="67" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -6414,7 +6429,7 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
     </row>
-    <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -6429,7 +6444,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>22</v>
       </c>
@@ -6444,7 +6459,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>23</v>
       </c>
@@ -6459,7 +6474,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>24</v>
       </c>
@@ -6474,7 +6489,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>25</v>
       </c>
@@ -6489,7 +6504,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>26</v>
       </c>
@@ -6504,7 +6519,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>27</v>
       </c>
@@ -6519,7 +6534,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>28</v>
       </c>
@@ -6534,7 +6549,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>29</v>
       </c>
@@ -6549,7 +6564,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>30</v>
       </c>
@@ -6572,57 +6587,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E1E0AF-DA5B-40E5-95D3-6E2BF13F316D}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>94</v>
       </c>
-      <c r="F1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -6634,16 +6641,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB3FC2D-AFE2-4D06-B16B-F381ADB6C4BE}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B1" s="15" t="s">
         <v>35</v>
       </c>
@@ -6693,7 +6700,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6734,7 +6741,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6775,7 +6782,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6816,7 +6823,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6857,7 +6864,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6874,7 +6881,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6891,7 +6898,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6908,7 +6915,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6925,7 +6932,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6942,7 +6949,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6959,7 +6966,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6976,7 +6983,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6993,7 +7000,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7007,7 +7014,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7021,7 +7028,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7035,7 +7042,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7049,7 +7056,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7063,7 +7070,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7077,7 +7084,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7091,7 +7098,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7105,7 +7112,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7119,7 +7126,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7133,7 +7140,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7147,7 +7154,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7161,7 +7168,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F32" s="13" t="s">
         <v>69</v>
       </c>
@@ -7169,7 +7176,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F33" t="s">
         <v>74</v>
       </c>
@@ -7177,7 +7184,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F34" t="s">
         <v>75</v>
       </c>
@@ -7185,7 +7192,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F35" t="s">
         <v>76</v>
       </c>
@@ -7200,14 +7207,235 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C1FC07-7656-468D-A6BC-261D242EE074}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f>CONCATENATE(B2,"_",C2,"_",D2)</f>
+        <v xml:space="preserve">Study1_pilot_glasses </v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="3" t="str">
+        <f t="shared" ref="E3:E13" si="0">CONCATENATE(B3,"_",C3,"_",D3)</f>
+        <v xml:space="preserve">Study1_pilot_cam1 </v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Study1_pilot_cam2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Study1_pilot_cam3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Study1_pilot_cam4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Study1_pilot_ambient </v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Study1_pilot_</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Study1_pilot_</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Study1_pilot_</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Study1_pilot_</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Study1_pilot_</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Study1_pilot_</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/paper_1/0_data/Study1_mocklist.xlsx
+++ b/paper_1/0_data/Study1_mocklist.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20359"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\paper_1\0_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konzertkasse\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DAF4A1-F602-4AA7-A645-B4CBFB064945}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13035" tabRatio="661"/>
   </bookViews>
   <sheets>
     <sheet name="subject_list" sheetId="8" r:id="rId1"/>
@@ -21,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">subject_list!$A$1:$AA$77</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="167">
   <si>
     <t>study</t>
   </si>
@@ -332,12 +331,207 @@
   </si>
   <si>
     <t xml:space="preserve">ambient </t>
+  </si>
+  <si>
+    <t>Study2</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gym </t>
+  </si>
+  <si>
+    <t>philo</t>
+  </si>
+  <si>
+    <t>biology</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>060</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,7 +560,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,6 +615,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -443,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -479,6 +697,32 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -860,39 +1104,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5028C5C-2C44-425F-8C32-C37BD87DD9AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="11" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.54296875" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" customWidth="1"/>
-    <col min="11" max="11" width="10.81640625" customWidth="1"/>
-    <col min="12" max="12" width="14.54296875" customWidth="1"/>
-    <col min="13" max="13" width="13.26953125" customWidth="1"/>
-    <col min="14" max="14" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="19" customWidth="1"/>
-    <col min="24" max="24" width="12.81640625" customWidth="1"/>
-    <col min="25" max="25" width="11.1796875" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" customWidth="1"/>
     <col min="26" max="26" width="55" customWidth="1"/>
-    <col min="27" max="27" width="65.81640625" customWidth="1"/>
+    <col min="27" max="27" width="65.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -929,7 +1173,7 @@
       <c r="L1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -975,7 +1219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -995,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>66</v>
@@ -1012,42 +1256,42 @@
       <c r="L2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>14</v>
+      <c r="M2" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="N2" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2" s="3">
-        <v>2020</v>
+        <v>1965</v>
       </c>
       <c r="Q2" s="3" t="str">
         <f t="shared" ref="Q2" si="0">N2&amp;"/"&amp;O2&amp;"/"&amp;P2</f>
-        <v>20/4/2020</v>
+        <v>21/2/1965</v>
       </c>
       <c r="R2" s="3">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="S2" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T2" s="3">
         <v>2020</v>
       </c>
       <c r="U2" s="3" t="str">
-        <f t="shared" ref="U2" si="1">R2&amp;"/"&amp;S2&amp;"/"&amp;T2</f>
-        <v>19/8/2020</v>
+        <f>R2&amp;"/"&amp;S2&amp;"/"&amp;T2</f>
+        <v>29/7/2020</v>
       </c>
       <c r="V2" s="3">
-        <f t="shared" ref="V2" si="2">DATEDIF(Q2, U2, "m")</f>
-        <v>3</v>
+        <f t="shared" ref="V2" si="1">DATEDIF(Q2, U2, "m")</f>
+        <v>665</v>
       </c>
       <c r="W2" s="3">
-        <f t="shared" ref="W2" si="3">DATEDIF(Q2, U2, "d")</f>
-        <v>121</v>
+        <f t="shared" ref="W2" si="2">DATEDIF(Q2, U2, "d")</f>
+        <v>20247</v>
       </c>
       <c r="X2" s="3">
         <v>1</v>
@@ -1063,7 +1307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1086,7 +1330,7 @@
         <v>61</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="I3" s="3">
         <v>9</v>
@@ -1100,8 +1344,8 @@
       <c r="L3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>14</v>
+      <c r="M3" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="N3" s="3">
         <v>1</v>
@@ -1113,29 +1357,29 @@
         <v>2000</v>
       </c>
       <c r="Q3" s="3" t="str">
-        <f t="shared" ref="Q3:Q6" si="4">N3&amp;"/"&amp;O3&amp;"/"&amp;P3</f>
+        <f t="shared" ref="Q3:Q6" si="3">N3&amp;"/"&amp;O3&amp;"/"&amp;P3</f>
         <v>1/1/2000</v>
       </c>
       <c r="R3" s="3">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="S3" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T3" s="3">
         <v>2020</v>
       </c>
       <c r="U3" s="3" t="str">
-        <f t="shared" ref="U3:U6" si="5">R3&amp;"/"&amp;S3&amp;"/"&amp;T3</f>
-        <v>1/1/2020</v>
+        <f t="shared" ref="U3:U6" si="4">R3&amp;"/"&amp;S3&amp;"/"&amp;T3</f>
+        <v>29/7/2020</v>
       </c>
       <c r="V3" s="3">
-        <f t="shared" ref="V3:V13" si="6">DATEDIF(Q3, U3, "m")</f>
-        <v>240</v>
+        <f t="shared" ref="V3:V13" si="5">DATEDIF(Q3, U3, "m")</f>
+        <v>246</v>
       </c>
       <c r="W3" s="3">
-        <f t="shared" ref="W3:W13" si="7">DATEDIF(Q3, U3, "d")</f>
-        <v>7305</v>
+        <f t="shared" ref="W3:W13" si="6">DATEDIF(Q3, U3, "d")</f>
+        <v>7515</v>
       </c>
       <c r="X3" s="3">
         <v>1</v>
@@ -1144,14 +1388,14 @@
         <v>1</v>
       </c>
       <c r="Z3" s="3" t="str">
-        <f t="shared" ref="Z2:Z13" si="8">CONCATENATE(B3,"_",C3,D3,"_",E3)</f>
+        <f t="shared" ref="Z3:Z13" si="7">CONCATENATE(B3,"_",C3,D3,"_",E3)</f>
         <v>Study1_pilot01_expert</v>
       </c>
       <c r="AA3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1174,7 +1418,7 @@
         <v>61</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="I4" s="3">
         <v>12</v>
@@ -1188,8 +1432,8 @@
       <c r="L4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>14</v>
+      <c r="M4" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="N4" s="3">
         <v>1</v>
@@ -1201,45 +1445,45 @@
         <v>2000</v>
       </c>
       <c r="Q4" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1/1/2000</v>
       </c>
       <c r="R4" s="3">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="S4" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T4" s="3">
         <v>2020</v>
       </c>
       <c r="U4" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>29/7/2020</v>
+      </c>
+      <c r="V4" s="3">
         <f t="shared" si="5"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V4" s="3">
+        <v>246</v>
+      </c>
+      <c r="W4" s="3">
         <f t="shared" si="6"/>
-        <v>240</v>
-      </c>
-      <c r="W4" s="3">
+        <v>7515</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>7305</v>
-      </c>
-      <c r="X4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="3" t="str">
-        <f t="shared" si="8"/>
         <v>Study1_pilot01_expert</v>
       </c>
       <c r="AA4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1259,10 +1503,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="I5" s="3">
         <v>14</v>
@@ -1276,8 +1520,8 @@
       <c r="L5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>14</v>
+      <c r="M5" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="N5" s="3">
         <v>1</v>
@@ -1289,45 +1533,45 @@
         <v>2000</v>
       </c>
       <c r="Q5" s="3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1/1/2000</v>
       </c>
       <c r="R5" s="3">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="S5" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T5" s="3">
         <v>2020</v>
       </c>
       <c r="U5" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>29/7/2020</v>
+      </c>
+      <c r="V5" s="3">
         <f t="shared" si="5"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V5" s="3">
+        <v>246</v>
+      </c>
+      <c r="W5" s="3">
         <f t="shared" si="6"/>
-        <v>240</v>
-      </c>
-      <c r="W5" s="3">
+        <v>7515</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>7305</v>
-      </c>
-      <c r="X5" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="3" t="str">
-        <f t="shared" si="8"/>
         <v>Study1_pilot01_expert</v>
       </c>
       <c r="AA5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1362,60 +1606,60 @@
         <v>31</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="N6" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" s="3">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="Q6" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>1/1/2000</v>
+        <f t="shared" si="3"/>
+        <v>5/2/1993</v>
       </c>
       <c r="R6" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S6" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T6" s="3">
         <v>2020</v>
       </c>
       <c r="U6" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>5/8/2020</v>
+      </c>
+      <c r="V6" s="3">
         <f t="shared" si="5"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V6" s="3">
+        <v>330</v>
+      </c>
+      <c r="W6" s="3">
         <f t="shared" si="6"/>
-        <v>240</v>
-      </c>
-      <c r="W6" s="3">
+        <v>10043</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z6" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>7305</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z6" s="3" t="str">
-        <f t="shared" si="8"/>
         <v>Study1_pilot02_novice</v>
       </c>
       <c r="AA6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1450,10 +1694,10 @@
         <v>31</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="N7" s="3">
         <v>1</v>
@@ -1465,45 +1709,45 @@
         <v>2000</v>
       </c>
       <c r="Q7" s="3" t="str">
-        <f t="shared" ref="Q7:Q13" si="9">N7&amp;"/"&amp;O7&amp;"/"&amp;P7</f>
+        <f t="shared" ref="Q7:Q13" si="8">N7&amp;"/"&amp;O7&amp;"/"&amp;P7</f>
         <v>1/1/2000</v>
       </c>
       <c r="R7" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S7" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T7" s="3">
         <v>2020</v>
       </c>
       <c r="U7" s="3" t="str">
-        <f t="shared" ref="U7:U13" si="10">R7&amp;"/"&amp;S7&amp;"/"&amp;T7</f>
-        <v>1/1/2020</v>
+        <f t="shared" ref="U7:U13" si="9">R7&amp;"/"&amp;S7&amp;"/"&amp;T7</f>
+        <v>5/8/2020</v>
       </c>
       <c r="V7" s="3">
+        <f t="shared" si="5"/>
+        <v>247</v>
+      </c>
+      <c r="W7" s="3">
         <f t="shared" si="6"/>
-        <v>240</v>
-      </c>
-      <c r="W7" s="3">
+        <v>7522</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z7" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>7305</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z7" s="3" t="str">
-        <f t="shared" si="8"/>
         <v>Study1_pilot02_novice</v>
       </c>
       <c r="AA7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1538,10 +1782,10 @@
         <v>31</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="N8" s="3">
         <v>1</v>
@@ -1553,45 +1797,45 @@
         <v>2000</v>
       </c>
       <c r="Q8" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1/1/2000</v>
       </c>
       <c r="R8" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S8" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T8" s="3">
         <v>2020</v>
       </c>
       <c r="U8" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>1/1/2020</v>
+        <f t="shared" si="9"/>
+        <v>5/8/2020</v>
       </c>
       <c r="V8" s="3">
+        <f t="shared" si="5"/>
+        <v>247</v>
+      </c>
+      <c r="W8" s="3">
         <f t="shared" si="6"/>
-        <v>240</v>
-      </c>
-      <c r="W8" s="3">
+        <v>7522</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z8" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>7305</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z8" s="3" t="str">
-        <f t="shared" si="8"/>
         <v>Study1_pilot02_novice</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1626,10 +1870,10 @@
         <v>31</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="N9" s="3">
         <v>1</v>
@@ -1641,45 +1885,45 @@
         <v>2000</v>
       </c>
       <c r="Q9" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1/1/2000</v>
       </c>
       <c r="R9" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S9" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T9" s="3">
         <v>2020</v>
       </c>
       <c r="U9" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>1/1/2020</v>
+        <f t="shared" si="9"/>
+        <v>5/8/2020</v>
       </c>
       <c r="V9" s="3">
+        <f t="shared" si="5"/>
+        <v>247</v>
+      </c>
+      <c r="W9" s="3">
         <f t="shared" si="6"/>
-        <v>240</v>
-      </c>
-      <c r="W9" s="3">
+        <v>7522</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z9" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>7305</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z9" s="3" t="str">
-        <f t="shared" si="8"/>
         <v>Study1_pilot02_novice</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1714,10 +1958,10 @@
         <v>31</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="N10" s="3">
         <v>1</v>
@@ -1729,45 +1973,45 @@
         <v>2000</v>
       </c>
       <c r="Q10" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1/1/2000</v>
       </c>
       <c r="R10" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S10" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T10" s="3">
         <v>2020</v>
       </c>
       <c r="U10" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>1/1/2020</v>
+        <f t="shared" si="9"/>
+        <v>5/8/2020</v>
       </c>
       <c r="V10" s="3">
+        <f t="shared" si="5"/>
+        <v>247</v>
+      </c>
+      <c r="W10" s="3">
         <f t="shared" si="6"/>
-        <v>240</v>
-      </c>
-      <c r="W10" s="3">
+        <v>7522</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z10" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>7305</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z10" s="3" t="str">
-        <f t="shared" si="8"/>
         <v>Study1_pilot03_novice</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1802,10 +2046,10 @@
         <v>31</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -1817,45 +2061,45 @@
         <v>2000</v>
       </c>
       <c r="Q11" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1/1/2000</v>
       </c>
       <c r="R11" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S11" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T11" s="3">
         <v>2020</v>
       </c>
       <c r="U11" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>1/1/2020</v>
+        <f t="shared" si="9"/>
+        <v>5/8/2020</v>
       </c>
       <c r="V11" s="3">
+        <f t="shared" si="5"/>
+        <v>247</v>
+      </c>
+      <c r="W11" s="3">
         <f t="shared" si="6"/>
-        <v>240</v>
-      </c>
-      <c r="W11" s="3">
+        <v>7522</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z11" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>7305</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z11" s="3" t="str">
-        <f t="shared" si="8"/>
         <v>Study1_pilot03_novice</v>
       </c>
       <c r="AA11" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1890,10 +2134,10 @@
         <v>31</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="N12" s="3">
         <v>1</v>
@@ -1905,45 +2149,45 @@
         <v>2000</v>
       </c>
       <c r="Q12" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1/1/2000</v>
       </c>
       <c r="R12" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S12" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T12" s="3">
         <v>2020</v>
       </c>
       <c r="U12" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>1/1/2020</v>
+        <f t="shared" si="9"/>
+        <v>5/8/2020</v>
       </c>
       <c r="V12" s="3">
+        <f t="shared" si="5"/>
+        <v>247</v>
+      </c>
+      <c r="W12" s="3">
         <f t="shared" si="6"/>
-        <v>240</v>
-      </c>
-      <c r="W12" s="3">
+        <v>7522</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z12" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>7305</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z12" s="3" t="str">
-        <f t="shared" si="8"/>
         <v>Study1_pilot03_novice</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1978,10 +2222,10 @@
         <v>31</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="N13" s="3">
         <v>1</v>
@@ -1993,45 +2237,45 @@
         <v>2000</v>
       </c>
       <c r="Q13" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1/1/2000</v>
       </c>
       <c r="R13" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S13" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T13" s="3">
         <v>2020</v>
       </c>
       <c r="U13" s="3" t="str">
-        <f t="shared" si="10"/>
-        <v>1/1/2020</v>
+        <f t="shared" si="9"/>
+        <v>5/8/2020</v>
       </c>
       <c r="V13" s="3">
+        <f t="shared" si="5"/>
+        <v>247</v>
+      </c>
+      <c r="W13" s="3">
         <f t="shared" si="6"/>
-        <v>240</v>
-      </c>
-      <c r="W13" s="3">
+        <v>7522</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z13" s="3" t="str">
         <f t="shared" si="7"/>
-        <v>7305</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z13" s="3" t="str">
-        <f t="shared" si="8"/>
         <v>Study1_pilot03_novice</v>
       </c>
       <c r="AA13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2044,7 +2288,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="M14" s="10"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -2060,7 +2304,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2073,7 +2317,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="M15" s="10"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -2089,7 +2333,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -2112,22 +2356,22 @@
         <v>60</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="I16" s="3">
+        <v>16</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="N16" s="3">
         <v>1</v>
@@ -2139,7 +2383,7 @@
         <v>2000</v>
       </c>
       <c r="Q16" s="3" t="str">
-        <f t="shared" ref="Q16" si="11">N16&amp;"/"&amp;O16&amp;"/"&amp;P16</f>
+        <f t="shared" ref="Q16" si="10">N16&amp;"/"&amp;O16&amp;"/"&amp;P16</f>
         <v>1/1/2000</v>
       </c>
       <c r="R16" s="3">
@@ -2152,15 +2396,15 @@
         <v>2020</v>
       </c>
       <c r="U16" s="3" t="str">
-        <f t="shared" ref="U16" si="12">R16&amp;"/"&amp;S16&amp;"/"&amp;T16</f>
+        <f t="shared" ref="U16" si="11">R16&amp;"/"&amp;S16&amp;"/"&amp;T16</f>
         <v>1/1/2020</v>
       </c>
       <c r="V16" s="3">
-        <f t="shared" ref="V16" si="13">DATEDIF(Q16, U16, "m")</f>
+        <f t="shared" ref="V16" si="12">DATEDIF(Q16, U16, "m")</f>
         <v>240</v>
       </c>
       <c r="W16" s="3">
-        <f t="shared" ref="W16" si="14">DATEDIF(Q16, U16, "d")</f>
+        <f t="shared" ref="W16" si="13">DATEDIF(Q16, U16, "d")</f>
         <v>7305</v>
       </c>
       <c r="X16" s="3" t="s">
@@ -2170,14 +2414,14 @@
         <v>14</v>
       </c>
       <c r="Z16" s="3" t="str">
-        <f t="shared" ref="Z16:Z39" si="15">CONCATENATE(B16,"_",C16,D16,"_",E16)</f>
+        <f t="shared" ref="Z16:Z39" si="14">CONCATENATE(B16,"_",C16,D16,"_",E16)</f>
         <v>Study1_ongoing01_expert</v>
       </c>
       <c r="AA16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -2200,22 +2444,22 @@
         <v>61</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>14</v>
+        <v>117</v>
+      </c>
+      <c r="I17" s="3">
+        <v>11</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="N17" s="3">
         <v>1</v>
@@ -2227,7 +2471,7 @@
         <v>2000</v>
       </c>
       <c r="Q17" s="3" t="str">
-        <f t="shared" ref="Q17:Q34" si="16">N17&amp;"/"&amp;O17&amp;"/"&amp;P17</f>
+        <f t="shared" ref="Q17:Q34" si="15">N17&amp;"/"&amp;O17&amp;"/"&amp;P17</f>
         <v>1/1/2000</v>
       </c>
       <c r="R17" s="3">
@@ -2240,15 +2484,15 @@
         <v>2020</v>
       </c>
       <c r="U17" s="3" t="str">
-        <f t="shared" ref="U17:U34" si="17">R17&amp;"/"&amp;S17&amp;"/"&amp;T17</f>
+        <f t="shared" ref="U17:U34" si="16">R17&amp;"/"&amp;S17&amp;"/"&amp;T17</f>
         <v>1/1/2020</v>
       </c>
       <c r="V17" s="3">
-        <f t="shared" ref="V17:V34" si="18">DATEDIF(Q17, U17, "m")</f>
+        <f t="shared" ref="V17:V34" si="17">DATEDIF(Q17, U17, "m")</f>
         <v>240</v>
       </c>
       <c r="W17" s="3">
-        <f t="shared" ref="W17:W34" si="19">DATEDIF(Q17, U17, "d")</f>
+        <f t="shared" ref="W17:W34" si="18">DATEDIF(Q17, U17, "d")</f>
         <v>7305</v>
       </c>
       <c r="X17" s="3" t="s">
@@ -2258,14 +2502,14 @@
         <v>14</v>
       </c>
       <c r="Z17" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing01_expert</v>
       </c>
       <c r="AA17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -2288,22 +2532,22 @@
         <v>61</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>14</v>
+        <v>118</v>
+      </c>
+      <c r="I18" s="3">
+        <v>10</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="N18" s="3">
         <v>1</v>
@@ -2315,7 +2559,7 @@
         <v>2000</v>
       </c>
       <c r="Q18" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1/1/2000</v>
       </c>
       <c r="R18" s="3">
@@ -2328,15 +2572,15 @@
         <v>2020</v>
       </c>
       <c r="U18" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V18" s="3">
         <f t="shared" si="17"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V18" s="3">
+        <v>240</v>
+      </c>
+      <c r="W18" s="3">
         <f t="shared" si="18"/>
-        <v>240</v>
-      </c>
-      <c r="W18" s="3">
-        <f t="shared" si="19"/>
         <v>7305</v>
       </c>
       <c r="X18" s="3" t="s">
@@ -2346,14 +2590,14 @@
         <v>14</v>
       </c>
       <c r="Z18" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing01_expert</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -2376,22 +2620,22 @@
         <v>61</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>14</v>
+        <v>116</v>
+      </c>
+      <c r="I19" s="3">
+        <v>15</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="N19" s="3">
         <v>1</v>
@@ -2403,7 +2647,7 @@
         <v>2000</v>
       </c>
       <c r="Q19" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1/1/2000</v>
       </c>
       <c r="R19" s="3">
@@ -2416,15 +2660,15 @@
         <v>2020</v>
       </c>
       <c r="U19" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V19" s="3">
         <f t="shared" si="17"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V19" s="3">
+        <v>240</v>
+      </c>
+      <c r="W19" s="3">
         <f t="shared" si="18"/>
-        <v>240</v>
-      </c>
-      <c r="W19" s="3">
-        <f t="shared" si="19"/>
         <v>7305</v>
       </c>
       <c r="X19" s="3" t="s">
@@ -2434,14 +2678,14 @@
         <v>14</v>
       </c>
       <c r="Z19" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing01_expert</v>
       </c>
       <c r="AA19" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>5</v>
       </c>
@@ -2464,22 +2708,22 @@
         <v>62</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="I20" s="3">
+        <v>13</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="N20" s="3">
         <v>1</v>
@@ -2491,7 +2735,7 @@
         <v>2000</v>
       </c>
       <c r="Q20" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1/1/2000</v>
       </c>
       <c r="R20" s="3">
@@ -2504,15 +2748,15 @@
         <v>2020</v>
       </c>
       <c r="U20" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V20" s="3">
         <f t="shared" si="17"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V20" s="3">
+        <v>240</v>
+      </c>
+      <c r="W20" s="3">
         <f t="shared" si="18"/>
-        <v>240</v>
-      </c>
-      <c r="W20" s="3">
-        <f t="shared" si="19"/>
         <v>7305</v>
       </c>
       <c r="X20" s="3" t="s">
@@ -2522,14 +2766,14 @@
         <v>14</v>
       </c>
       <c r="Z20" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing02_expert</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>6</v>
       </c>
@@ -2552,22 +2796,22 @@
         <v>62</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>14</v>
+        <v>117</v>
+      </c>
+      <c r="I21" s="3">
+        <v>12</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>124</v>
       </c>
       <c r="N21" s="3">
         <v>1</v>
@@ -2579,7 +2823,7 @@
         <v>2000</v>
       </c>
       <c r="Q21" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1/1/2000</v>
       </c>
       <c r="R21" s="3">
@@ -2592,15 +2836,15 @@
         <v>2020</v>
       </c>
       <c r="U21" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V21" s="3">
         <f t="shared" si="17"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V21" s="3">
+        <v>240</v>
+      </c>
+      <c r="W21" s="3">
         <f t="shared" si="18"/>
-        <v>240</v>
-      </c>
-      <c r="W21" s="3">
-        <f t="shared" si="19"/>
         <v>7305</v>
       </c>
       <c r="X21" s="3" t="s">
@@ -2610,14 +2854,14 @@
         <v>14</v>
       </c>
       <c r="Z21" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing02_expert</v>
       </c>
       <c r="AA21" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>7</v>
       </c>
@@ -2640,22 +2884,22 @@
         <v>62</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>14</v>
+        <v>118</v>
+      </c>
+      <c r="I22" s="3">
+        <v>16</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="N22" s="3">
         <v>1</v>
@@ -2667,7 +2911,7 @@
         <v>2000</v>
       </c>
       <c r="Q22" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1/1/2000</v>
       </c>
       <c r="R22" s="3">
@@ -2680,15 +2924,15 @@
         <v>2020</v>
       </c>
       <c r="U22" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V22" s="3">
         <f t="shared" si="17"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V22" s="3">
+        <v>240</v>
+      </c>
+      <c r="W22" s="3">
         <f t="shared" si="18"/>
-        <v>240</v>
-      </c>
-      <c r="W22" s="3">
-        <f t="shared" si="19"/>
         <v>7305</v>
       </c>
       <c r="X22" s="3" t="s">
@@ -2698,14 +2942,14 @@
         <v>14</v>
       </c>
       <c r="Z22" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing02_expert</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>8</v>
       </c>
@@ -2728,22 +2972,22 @@
         <v>62</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>14</v>
+        <v>116</v>
+      </c>
+      <c r="I23" s="3">
+        <v>11</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="N23" s="3">
         <v>1</v>
@@ -2755,7 +2999,7 @@
         <v>2000</v>
       </c>
       <c r="Q23" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1/1/2000</v>
       </c>
       <c r="R23" s="3">
@@ -2768,15 +3012,15 @@
         <v>2020</v>
       </c>
       <c r="U23" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V23" s="3">
         <f t="shared" si="17"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V23" s="3">
+        <v>240</v>
+      </c>
+      <c r="W23" s="3">
         <f t="shared" si="18"/>
-        <v>240</v>
-      </c>
-      <c r="W23" s="3">
-        <f t="shared" si="19"/>
         <v>7305</v>
       </c>
       <c r="X23" s="3" t="s">
@@ -2786,14 +3030,14 @@
         <v>14</v>
       </c>
       <c r="Z23" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing02_expert</v>
       </c>
       <c r="AA23" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>9</v>
       </c>
@@ -2816,22 +3060,22 @@
         <v>63</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="I24" s="3">
+        <v>10</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="N24" s="3">
         <v>1</v>
@@ -2843,7 +3087,7 @@
         <v>2000</v>
       </c>
       <c r="Q24" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1/1/2000</v>
       </c>
       <c r="R24" s="3">
@@ -2856,15 +3100,15 @@
         <v>2020</v>
       </c>
       <c r="U24" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V24" s="3">
         <f t="shared" si="17"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V24" s="3">
+        <v>240</v>
+      </c>
+      <c r="W24" s="3">
         <f t="shared" si="18"/>
-        <v>240</v>
-      </c>
-      <c r="W24" s="3">
-        <f t="shared" si="19"/>
         <v>7305</v>
       </c>
       <c r="X24" s="3" t="s">
@@ -2874,14 +3118,14 @@
         <v>14</v>
       </c>
       <c r="Z24" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing03_expert</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>10</v>
       </c>
@@ -2904,22 +3148,22 @@
         <v>61</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>14</v>
+        <v>117</v>
+      </c>
+      <c r="I25" s="3">
+        <v>15</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="N25" s="3">
         <v>1</v>
@@ -2931,7 +3175,7 @@
         <v>2000</v>
       </c>
       <c r="Q25" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1/1/2000</v>
       </c>
       <c r="R25" s="3">
@@ -2944,15 +3188,15 @@
         <v>2020</v>
       </c>
       <c r="U25" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V25" s="3">
         <f t="shared" si="17"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V25" s="3">
+        <v>240</v>
+      </c>
+      <c r="W25" s="3">
         <f t="shared" si="18"/>
-        <v>240</v>
-      </c>
-      <c r="W25" s="3">
-        <f t="shared" si="19"/>
         <v>7305</v>
       </c>
       <c r="X25" s="3" t="s">
@@ -2962,14 +3206,14 @@
         <v>14</v>
       </c>
       <c r="Z25" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing03_expert</v>
       </c>
       <c r="AA25" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>11</v>
       </c>
@@ -2992,22 +3236,22 @@
         <v>61</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>14</v>
+        <v>118</v>
+      </c>
+      <c r="I26" s="3">
+        <v>13</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="N26" s="3">
         <v>1</v>
@@ -3019,7 +3263,7 @@
         <v>2000</v>
       </c>
       <c r="Q26" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1/1/2000</v>
       </c>
       <c r="R26" s="3">
@@ -3032,15 +3276,15 @@
         <v>2020</v>
       </c>
       <c r="U26" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V26" s="3">
         <f t="shared" si="17"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V26" s="3">
+        <v>240</v>
+      </c>
+      <c r="W26" s="3">
         <f t="shared" si="18"/>
-        <v>240</v>
-      </c>
-      <c r="W26" s="3">
-        <f t="shared" si="19"/>
         <v>7305</v>
       </c>
       <c r="X26" s="3" t="s">
@@ -3050,14 +3294,14 @@
         <v>14</v>
       </c>
       <c r="Z26" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing03_expert</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>12</v>
       </c>
@@ -3080,22 +3324,22 @@
         <v>61</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>14</v>
+        <v>116</v>
+      </c>
+      <c r="I27" s="3">
+        <v>12</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="N27" s="3">
         <v>1</v>
@@ -3107,7 +3351,7 @@
         <v>2000</v>
       </c>
       <c r="Q27" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1/1/2000</v>
       </c>
       <c r="R27" s="3">
@@ -3120,15 +3364,15 @@
         <v>2020</v>
       </c>
       <c r="U27" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V27" s="3">
         <f t="shared" si="17"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V27" s="3">
+        <v>240</v>
+      </c>
+      <c r="W27" s="3">
         <f t="shared" si="18"/>
-        <v>240</v>
-      </c>
-      <c r="W27" s="3">
-        <f t="shared" si="19"/>
         <v>7305</v>
       </c>
       <c r="X27" s="3" t="s">
@@ -3138,14 +3382,14 @@
         <v>14</v>
       </c>
       <c r="Z27" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing03_expert</v>
       </c>
       <c r="AA27" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>13</v>
       </c>
@@ -3168,22 +3412,22 @@
         <v>60</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="I28" s="3">
+        <v>16</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="N28" s="3">
         <v>1</v>
@@ -3195,7 +3439,7 @@
         <v>2000</v>
       </c>
       <c r="Q28" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1/1/2000</v>
       </c>
       <c r="R28" s="3">
@@ -3208,15 +3452,15 @@
         <v>2020</v>
       </c>
       <c r="U28" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V28" s="3">
         <f t="shared" si="17"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V28" s="3">
+        <v>240</v>
+      </c>
+      <c r="W28" s="3">
         <f t="shared" si="18"/>
-        <v>240</v>
-      </c>
-      <c r="W28" s="3">
-        <f t="shared" si="19"/>
         <v>7305</v>
       </c>
       <c r="X28" s="3" t="s">
@@ -3226,14 +3470,14 @@
         <v>14</v>
       </c>
       <c r="Z28" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing04_expert</v>
       </c>
       <c r="AA28" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>14</v>
       </c>
@@ -3256,22 +3500,22 @@
         <v>61</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>14</v>
+        <v>117</v>
+      </c>
+      <c r="I29" s="3">
+        <v>11</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="N29" s="3">
         <v>1</v>
@@ -3283,7 +3527,7 @@
         <v>2000</v>
       </c>
       <c r="Q29" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1/1/2000</v>
       </c>
       <c r="R29" s="3">
@@ -3296,15 +3540,15 @@
         <v>2020</v>
       </c>
       <c r="U29" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V29" s="3">
         <f t="shared" si="17"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V29" s="3">
+        <v>240</v>
+      </c>
+      <c r="W29" s="3">
         <f t="shared" si="18"/>
-        <v>240</v>
-      </c>
-      <c r="W29" s="3">
-        <f t="shared" si="19"/>
         <v>7305</v>
       </c>
       <c r="X29" s="3" t="s">
@@ -3314,14 +3558,14 @@
         <v>14</v>
       </c>
       <c r="Z29" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing04_expert</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>15</v>
       </c>
@@ -3344,22 +3588,22 @@
         <v>61</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>14</v>
+        <v>118</v>
+      </c>
+      <c r="I30" s="3">
+        <v>10</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="N30" s="3">
         <v>1</v>
@@ -3371,7 +3615,7 @@
         <v>2000</v>
       </c>
       <c r="Q30" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1/1/2000</v>
       </c>
       <c r="R30" s="3">
@@ -3384,15 +3628,15 @@
         <v>2020</v>
       </c>
       <c r="U30" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V30" s="3">
         <f t="shared" si="17"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V30" s="3">
+        <v>240</v>
+      </c>
+      <c r="W30" s="3">
         <f t="shared" si="18"/>
-        <v>240</v>
-      </c>
-      <c r="W30" s="3">
-        <f t="shared" si="19"/>
         <v>7305</v>
       </c>
       <c r="X30" s="3" t="s">
@@ -3402,14 +3646,14 @@
         <v>14</v>
       </c>
       <c r="Z30" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing04_expert</v>
       </c>
       <c r="AA30" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>16</v>
       </c>
@@ -3432,22 +3676,22 @@
         <v>61</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>14</v>
+        <v>116</v>
+      </c>
+      <c r="I31" s="3">
+        <v>15</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="N31" s="3">
         <v>1</v>
@@ -3459,7 +3703,7 @@
         <v>2000</v>
       </c>
       <c r="Q31" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1/1/2000</v>
       </c>
       <c r="R31" s="3">
@@ -3472,15 +3716,15 @@
         <v>2020</v>
       </c>
       <c r="U31" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V31" s="3">
         <f t="shared" si="17"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V31" s="3">
+        <v>240</v>
+      </c>
+      <c r="W31" s="3">
         <f t="shared" si="18"/>
-        <v>240</v>
-      </c>
-      <c r="W31" s="3">
-        <f t="shared" si="19"/>
         <v>7305</v>
       </c>
       <c r="X31" s="3" t="s">
@@ -3490,14 +3734,14 @@
         <v>14</v>
       </c>
       <c r="Z31" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing04_expert</v>
       </c>
       <c r="AA31" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>17</v>
       </c>
@@ -3520,22 +3764,22 @@
         <v>62</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="I32" s="3">
+        <v>13</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="N32" s="3">
         <v>1</v>
@@ -3547,7 +3791,7 @@
         <v>2000</v>
       </c>
       <c r="Q32" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1/1/2000</v>
       </c>
       <c r="R32" s="3">
@@ -3560,15 +3804,15 @@
         <v>2020</v>
       </c>
       <c r="U32" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V32" s="3">
         <f t="shared" si="17"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V32" s="3">
+        <v>240</v>
+      </c>
+      <c r="W32" s="3">
         <f t="shared" si="18"/>
-        <v>240</v>
-      </c>
-      <c r="W32" s="3">
-        <f t="shared" si="19"/>
         <v>7305</v>
       </c>
       <c r="X32" s="3" t="s">
@@ -3578,14 +3822,14 @@
         <v>14</v>
       </c>
       <c r="Z32" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing05_expert</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>18</v>
       </c>
@@ -3608,22 +3852,22 @@
         <v>62</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>14</v>
+        <v>117</v>
+      </c>
+      <c r="I33" s="3">
+        <v>12</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="N33" s="3">
         <v>1</v>
@@ -3635,7 +3879,7 @@
         <v>2000</v>
       </c>
       <c r="Q33" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1/1/2000</v>
       </c>
       <c r="R33" s="3">
@@ -3648,15 +3892,15 @@
         <v>2020</v>
       </c>
       <c r="U33" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V33" s="3">
         <f t="shared" si="17"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V33" s="3">
+        <v>240</v>
+      </c>
+      <c r="W33" s="3">
         <f t="shared" si="18"/>
-        <v>240</v>
-      </c>
-      <c r="W33" s="3">
-        <f t="shared" si="19"/>
         <v>7305</v>
       </c>
       <c r="X33" s="3" t="s">
@@ -3666,14 +3910,14 @@
         <v>14</v>
       </c>
       <c r="Z33" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing05_expert</v>
       </c>
       <c r="AA33" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>19</v>
       </c>
@@ -3696,22 +3940,22 @@
         <v>62</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>14</v>
+        <v>118</v>
+      </c>
+      <c r="I34" s="3">
+        <v>16</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="N34" s="3">
         <v>1</v>
@@ -3723,7 +3967,7 @@
         <v>2000</v>
       </c>
       <c r="Q34" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1/1/2000</v>
       </c>
       <c r="R34" s="3">
@@ -3736,15 +3980,15 @@
         <v>2020</v>
       </c>
       <c r="U34" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V34" s="3">
         <f t="shared" si="17"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V34" s="3">
+        <v>240</v>
+      </c>
+      <c r="W34" s="3">
         <f t="shared" si="18"/>
-        <v>240</v>
-      </c>
-      <c r="W34" s="3">
-        <f t="shared" si="19"/>
         <v>7305</v>
       </c>
       <c r="X34" s="3" t="s">
@@ -3754,14 +3998,14 @@
         <v>14</v>
       </c>
       <c r="Z34" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing05_expert</v>
       </c>
       <c r="AA34" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>20</v>
       </c>
@@ -3784,22 +4028,22 @@
         <v>62</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>14</v>
+        <v>116</v>
+      </c>
+      <c r="I35" s="3">
+        <v>11</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="N35" s="3">
         <v>1</v>
@@ -3811,7 +4055,7 @@
         <v>2000</v>
       </c>
       <c r="Q35" s="3" t="str">
-        <f t="shared" ref="Q35:Q39" si="20">N35&amp;"/"&amp;O35&amp;"/"&amp;P35</f>
+        <f t="shared" ref="Q35:Q39" si="19">N35&amp;"/"&amp;O35&amp;"/"&amp;P35</f>
         <v>1/1/2000</v>
       </c>
       <c r="R35" s="3">
@@ -3824,15 +4068,15 @@
         <v>2020</v>
       </c>
       <c r="U35" s="3" t="str">
-        <f t="shared" ref="U35:U39" si="21">R35&amp;"/"&amp;S35&amp;"/"&amp;T35</f>
+        <f t="shared" ref="U35:U39" si="20">R35&amp;"/"&amp;S35&amp;"/"&amp;T35</f>
         <v>1/1/2020</v>
       </c>
       <c r="V35" s="3">
-        <f t="shared" ref="V35:V39" si="22">DATEDIF(Q35, U35, "m")</f>
+        <f t="shared" ref="V35:V39" si="21">DATEDIF(Q35, U35, "m")</f>
         <v>240</v>
       </c>
       <c r="W35" s="3">
-        <f t="shared" ref="W35:W39" si="23">DATEDIF(Q35, U35, "d")</f>
+        <f t="shared" ref="W35:W39" si="22">DATEDIF(Q35, U35, "d")</f>
         <v>7305</v>
       </c>
       <c r="X35" s="3" t="s">
@@ -3842,14 +4086,14 @@
         <v>14</v>
       </c>
       <c r="Z35" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing05_expert</v>
       </c>
       <c r="AA35" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>21</v>
       </c>
@@ -3872,22 +4116,22 @@
         <v>63</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="I36" s="3">
+        <v>10</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="N36" s="3">
         <v>1</v>
@@ -3899,7 +4143,7 @@
         <v>2000</v>
       </c>
       <c r="Q36" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1/1/2000</v>
       </c>
       <c r="R36" s="3">
@@ -3912,15 +4156,15 @@
         <v>2020</v>
       </c>
       <c r="U36" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V36" s="3">
         <f t="shared" si="21"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V36" s="3">
+        <v>240</v>
+      </c>
+      <c r="W36" s="3">
         <f t="shared" si="22"/>
-        <v>240</v>
-      </c>
-      <c r="W36" s="3">
-        <f t="shared" si="23"/>
         <v>7305</v>
       </c>
       <c r="X36" s="3" t="s">
@@ -3930,14 +4174,14 @@
         <v>14</v>
       </c>
       <c r="Z36" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing06_expert</v>
       </c>
       <c r="AA36" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>22</v>
       </c>
@@ -3960,22 +4204,22 @@
         <v>61</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>14</v>
+        <v>117</v>
+      </c>
+      <c r="I37" s="3">
+        <v>15</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="N37" s="3">
         <v>1</v>
@@ -3987,7 +4231,7 @@
         <v>2000</v>
       </c>
       <c r="Q37" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1/1/2000</v>
       </c>
       <c r="R37" s="3">
@@ -4000,15 +4244,15 @@
         <v>2020</v>
       </c>
       <c r="U37" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V37" s="3">
         <f t="shared" si="21"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V37" s="3">
+        <v>240</v>
+      </c>
+      <c r="W37" s="3">
         <f t="shared" si="22"/>
-        <v>240</v>
-      </c>
-      <c r="W37" s="3">
-        <f t="shared" si="23"/>
         <v>7305</v>
       </c>
       <c r="X37" s="3" t="s">
@@ -4018,14 +4262,14 @@
         <v>14</v>
       </c>
       <c r="Z37" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing06_expert</v>
       </c>
       <c r="AA37" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>23</v>
       </c>
@@ -4048,22 +4292,22 @@
         <v>61</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>14</v>
+        <v>118</v>
+      </c>
+      <c r="I38" s="3">
+        <v>13</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="N38" s="3">
         <v>1</v>
@@ -4075,7 +4319,7 @@
         <v>2000</v>
       </c>
       <c r="Q38" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1/1/2000</v>
       </c>
       <c r="R38" s="3">
@@ -4088,15 +4332,15 @@
         <v>2020</v>
       </c>
       <c r="U38" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V38" s="3">
         <f t="shared" si="21"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V38" s="3">
+        <v>240</v>
+      </c>
+      <c r="W38" s="3">
         <f t="shared" si="22"/>
-        <v>240</v>
-      </c>
-      <c r="W38" s="3">
-        <f t="shared" si="23"/>
         <v>7305</v>
       </c>
       <c r="X38" s="3" t="s">
@@ -4106,14 +4350,14 @@
         <v>14</v>
       </c>
       <c r="Z38" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing06_expert</v>
       </c>
       <c r="AA38" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>24</v>
       </c>
@@ -4136,22 +4380,22 @@
         <v>61</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>14</v>
+        <v>116</v>
+      </c>
+      <c r="I39" s="3">
+        <v>12</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>39</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="N39" s="3">
         <v>1</v>
@@ -4163,7 +4407,7 @@
         <v>2000</v>
       </c>
       <c r="Q39" s="3" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1/1/2000</v>
       </c>
       <c r="R39" s="3">
@@ -4176,15 +4420,15 @@
         <v>2020</v>
       </c>
       <c r="U39" s="3" t="str">
+        <f t="shared" si="20"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V39" s="3">
         <f t="shared" si="21"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V39" s="3">
+        <v>240</v>
+      </c>
+      <c r="W39" s="3">
         <f t="shared" si="22"/>
-        <v>240</v>
-      </c>
-      <c r="W39" s="3">
-        <f t="shared" si="23"/>
         <v>7305</v>
       </c>
       <c r="X39" s="3" t="s">
@@ -4194,14 +4438,14 @@
         <v>14</v>
       </c>
       <c r="Z39" s="3" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>Study1_ongoing06_expert</v>
       </c>
       <c r="AA39" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4214,7 +4458,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+      <c r="M40" s="10"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
@@ -4230,7 +4474,7 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
     </row>
-    <row r="41" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4243,7 +4487,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
+      <c r="M41" s="10"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
@@ -4259,7 +4503,7 @@
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
     </row>
-    <row r="42" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -4296,8 +4540,8 @@
       <c r="L42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>14</v>
+      <c r="M42" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="N42" s="3">
         <v>1</v>
@@ -4309,7 +4553,7 @@
         <v>2000</v>
       </c>
       <c r="Q42" s="3" t="str">
-        <f t="shared" ref="Q42" si="24">N42&amp;"/"&amp;O42&amp;"/"&amp;P42</f>
+        <f t="shared" ref="Q42" si="23">N42&amp;"/"&amp;O42&amp;"/"&amp;P42</f>
         <v>1/1/2000</v>
       </c>
       <c r="R42" s="3">
@@ -4322,15 +4566,15 @@
         <v>2020</v>
       </c>
       <c r="U42" s="3" t="str">
-        <f t="shared" ref="U42" si="25">R42&amp;"/"&amp;S42&amp;"/"&amp;T42</f>
+        <f t="shared" ref="U42" si="24">R42&amp;"/"&amp;S42&amp;"/"&amp;T42</f>
         <v>1/1/2020</v>
       </c>
       <c r="V42" s="3">
-        <f t="shared" ref="V42" si="26">DATEDIF(Q42, U42, "m")</f>
+        <f t="shared" ref="V42" si="25">DATEDIF(Q42, U42, "m")</f>
         <v>240</v>
       </c>
       <c r="W42" s="3">
-        <f t="shared" ref="W42" si="27">DATEDIF(Q42, U42, "d")</f>
+        <f t="shared" ref="W42" si="26">DATEDIF(Q42, U42, "d")</f>
         <v>7305</v>
       </c>
       <c r="X42" s="3" t="s">
@@ -4340,14 +4584,14 @@
         <v>14</v>
       </c>
       <c r="Z42" s="3" t="str">
-        <f t="shared" ref="Z42:Z64" si="28">CONCATENATE(B42,"_",C42,D42,"_",E42)</f>
+        <f t="shared" ref="Z42:Z64" si="27">CONCATENATE(B42,"_",C42,D42,"_",E42)</f>
         <v>Study1_ongoing07_novice</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -4384,8 +4628,8 @@
       <c r="L43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>14</v>
+      <c r="M43" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="N43" s="3">
         <v>1</v>
@@ -4397,7 +4641,7 @@
         <v>2000</v>
       </c>
       <c r="Q43" s="3" t="str">
-        <f t="shared" ref="Q43:Q65" si="29">N43&amp;"/"&amp;O43&amp;"/"&amp;P43</f>
+        <f t="shared" ref="Q43:Q65" si="28">N43&amp;"/"&amp;O43&amp;"/"&amp;P43</f>
         <v>1/1/2000</v>
       </c>
       <c r="R43" s="3">
@@ -4410,15 +4654,15 @@
         <v>2020</v>
       </c>
       <c r="U43" s="3" t="str">
-        <f t="shared" ref="U43:U65" si="30">R43&amp;"/"&amp;S43&amp;"/"&amp;T43</f>
+        <f t="shared" ref="U43:U65" si="29">R43&amp;"/"&amp;S43&amp;"/"&amp;T43</f>
         <v>1/1/2020</v>
       </c>
       <c r="V43" s="3">
-        <f t="shared" ref="V43:V65" si="31">DATEDIF(Q43, U43, "m")</f>
+        <f t="shared" ref="V43:V65" si="30">DATEDIF(Q43, U43, "m")</f>
         <v>240</v>
       </c>
       <c r="W43" s="3">
-        <f t="shared" ref="W43:W65" si="32">DATEDIF(Q43, U43, "d")</f>
+        <f t="shared" ref="W43:W65" si="31">DATEDIF(Q43, U43, "d")</f>
         <v>7305</v>
       </c>
       <c r="X43" s="3" t="s">
@@ -4428,14 +4672,14 @@
         <v>14</v>
       </c>
       <c r="Z43" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Study1_ongoing07_novice</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>3</v>
       </c>
@@ -4472,8 +4716,8 @@
       <c r="L44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>14</v>
+      <c r="M44" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="N44" s="3">
         <v>1</v>
@@ -4485,7 +4729,7 @@
         <v>2000</v>
       </c>
       <c r="Q44" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1/1/2000</v>
       </c>
       <c r="R44" s="3">
@@ -4498,15 +4742,15 @@
         <v>2020</v>
       </c>
       <c r="U44" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V44" s="3">
         <f t="shared" si="30"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V44" s="3">
+        <v>240</v>
+      </c>
+      <c r="W44" s="3">
         <f t="shared" si="31"/>
-        <v>240</v>
-      </c>
-      <c r="W44" s="3">
-        <f t="shared" si="32"/>
         <v>7305</v>
       </c>
       <c r="X44" s="3" t="s">
@@ -4516,14 +4760,14 @@
         <v>14</v>
       </c>
       <c r="Z44" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Study1_ongoing07_novice</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>4</v>
       </c>
@@ -4560,8 +4804,8 @@
       <c r="L45" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>14</v>
+      <c r="M45" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="N45" s="3">
         <v>1</v>
@@ -4573,7 +4817,7 @@
         <v>2000</v>
       </c>
       <c r="Q45" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1/1/2000</v>
       </c>
       <c r="R45" s="3">
@@ -4586,15 +4830,15 @@
         <v>2020</v>
       </c>
       <c r="U45" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V45" s="3">
         <f t="shared" si="30"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V45" s="3">
+        <v>240</v>
+      </c>
+      <c r="W45" s="3">
         <f t="shared" si="31"/>
-        <v>240</v>
-      </c>
-      <c r="W45" s="3">
-        <f t="shared" si="32"/>
         <v>7305</v>
       </c>
       <c r="X45" s="3" t="s">
@@ -4604,14 +4848,14 @@
         <v>14</v>
       </c>
       <c r="Z45" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Study1_ongoing07_novice</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>5</v>
       </c>
@@ -4643,13 +4887,13 @@
         <v>36</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="N46" s="3">
         <v>1</v>
@@ -4661,7 +4905,7 @@
         <v>2000</v>
       </c>
       <c r="Q46" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1/1/2000</v>
       </c>
       <c r="R46" s="3">
@@ -4674,15 +4918,15 @@
         <v>2020</v>
       </c>
       <c r="U46" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V46" s="3">
         <f t="shared" si="30"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V46" s="3">
+        <v>240</v>
+      </c>
+      <c r="W46" s="3">
         <f t="shared" si="31"/>
-        <v>240</v>
-      </c>
-      <c r="W46" s="3">
-        <f t="shared" si="32"/>
         <v>7305</v>
       </c>
       <c r="X46" s="3" t="s">
@@ -4692,14 +4936,14 @@
         <v>14</v>
       </c>
       <c r="Z46" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Study1_ongoing08_novice</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -4731,13 +4975,13 @@
         <v>37</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M47" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="N47" s="3">
         <v>1</v>
@@ -4749,7 +4993,7 @@
         <v>2000</v>
       </c>
       <c r="Q47" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1/1/2000</v>
       </c>
       <c r="R47" s="3">
@@ -4762,15 +5006,15 @@
         <v>2020</v>
       </c>
       <c r="U47" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V47" s="3">
         <f t="shared" si="30"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V47" s="3">
+        <v>240</v>
+      </c>
+      <c r="W47" s="3">
         <f t="shared" si="31"/>
-        <v>240</v>
-      </c>
-      <c r="W47" s="3">
-        <f t="shared" si="32"/>
         <v>7305</v>
       </c>
       <c r="X47" s="3" t="s">
@@ -4780,14 +5024,14 @@
         <v>14</v>
       </c>
       <c r="Z47" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Study1_ongoing08_novice</v>
       </c>
       <c r="AA47" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>7</v>
       </c>
@@ -4819,13 +5063,13 @@
         <v>38</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="N48" s="3">
         <v>1</v>
@@ -4837,7 +5081,7 @@
         <v>2000</v>
       </c>
       <c r="Q48" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1/1/2000</v>
       </c>
       <c r="R48" s="3">
@@ -4850,15 +5094,15 @@
         <v>2020</v>
       </c>
       <c r="U48" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V48" s="3">
         <f t="shared" si="30"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V48" s="3">
+        <v>240</v>
+      </c>
+      <c r="W48" s="3">
         <f t="shared" si="31"/>
-        <v>240</v>
-      </c>
-      <c r="W48" s="3">
-        <f t="shared" si="32"/>
         <v>7305</v>
       </c>
       <c r="X48" s="3" t="s">
@@ -4868,14 +5112,14 @@
         <v>14</v>
       </c>
       <c r="Z48" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Study1_ongoing08_novice</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>8</v>
       </c>
@@ -4907,13 +5151,13 @@
         <v>39</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>150</v>
       </c>
       <c r="N49" s="3">
         <v>1</v>
@@ -4925,7 +5169,7 @@
         <v>2000</v>
       </c>
       <c r="Q49" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1/1/2000</v>
       </c>
       <c r="R49" s="3">
@@ -4938,15 +5182,15 @@
         <v>2020</v>
       </c>
       <c r="U49" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V49" s="3">
         <f t="shared" si="30"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V49" s="3">
+        <v>240</v>
+      </c>
+      <c r="W49" s="3">
         <f t="shared" si="31"/>
-        <v>240</v>
-      </c>
-      <c r="W49" s="3">
-        <f t="shared" si="32"/>
         <v>7305</v>
       </c>
       <c r="X49" s="3" t="s">
@@ -4956,14 +5200,14 @@
         <v>14</v>
       </c>
       <c r="Z49" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Study1_ongoing08_novice</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>9</v>
       </c>
@@ -4995,13 +5239,13 @@
         <v>36</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="N50" s="3">
         <v>1</v>
@@ -5013,7 +5257,7 @@
         <v>2000</v>
       </c>
       <c r="Q50" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1/1/2000</v>
       </c>
       <c r="R50" s="3">
@@ -5026,15 +5270,15 @@
         <v>2020</v>
       </c>
       <c r="U50" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V50" s="3">
         <f t="shared" si="30"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V50" s="3">
+        <v>240</v>
+      </c>
+      <c r="W50" s="3">
         <f t="shared" si="31"/>
-        <v>240</v>
-      </c>
-      <c r="W50" s="3">
-        <f t="shared" si="32"/>
         <v>7305</v>
       </c>
       <c r="X50" s="3" t="s">
@@ -5044,14 +5288,14 @@
         <v>14</v>
       </c>
       <c r="Z50" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Study1_ongoing09_novice</v>
       </c>
       <c r="AA50" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>10</v>
       </c>
@@ -5083,13 +5327,13 @@
         <v>37</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="N51" s="3">
         <v>1</v>
@@ -5101,7 +5345,7 @@
         <v>2000</v>
       </c>
       <c r="Q51" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1/1/2000</v>
       </c>
       <c r="R51" s="3">
@@ -5114,15 +5358,15 @@
         <v>2020</v>
       </c>
       <c r="U51" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V51" s="3">
         <f t="shared" si="30"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V51" s="3">
+        <v>240</v>
+      </c>
+      <c r="W51" s="3">
         <f t="shared" si="31"/>
-        <v>240</v>
-      </c>
-      <c r="W51" s="3">
-        <f t="shared" si="32"/>
         <v>7305</v>
       </c>
       <c r="X51" s="3" t="s">
@@ -5132,14 +5376,14 @@
         <v>14</v>
       </c>
       <c r="Z51" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Study1_ongoing09_novice</v>
       </c>
       <c r="AA51" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>11</v>
       </c>
@@ -5171,13 +5415,13 @@
         <v>38</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="N52" s="3">
         <v>1</v>
@@ -5189,7 +5433,7 @@
         <v>2000</v>
       </c>
       <c r="Q52" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1/1/2000</v>
       </c>
       <c r="R52" s="3">
@@ -5202,15 +5446,15 @@
         <v>2020</v>
       </c>
       <c r="U52" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V52" s="3">
         <f t="shared" si="30"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V52" s="3">
+        <v>240</v>
+      </c>
+      <c r="W52" s="3">
         <f t="shared" si="31"/>
-        <v>240</v>
-      </c>
-      <c r="W52" s="3">
-        <f t="shared" si="32"/>
         <v>7305</v>
       </c>
       <c r="X52" s="3" t="s">
@@ -5220,14 +5464,14 @@
         <v>14</v>
       </c>
       <c r="Z52" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Study1_ongoing09_novice</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>12</v>
       </c>
@@ -5259,13 +5503,13 @@
         <v>39</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="N53" s="3">
         <v>1</v>
@@ -5277,7 +5521,7 @@
         <v>2000</v>
       </c>
       <c r="Q53" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1/1/2000</v>
       </c>
       <c r="R53" s="3">
@@ -5290,15 +5534,15 @@
         <v>2020</v>
       </c>
       <c r="U53" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V53" s="3">
         <f t="shared" si="30"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V53" s="3">
+        <v>240</v>
+      </c>
+      <c r="W53" s="3">
         <f t="shared" si="31"/>
-        <v>240</v>
-      </c>
-      <c r="W53" s="3">
-        <f t="shared" si="32"/>
         <v>7305</v>
       </c>
       <c r="X53" s="3" t="s">
@@ -5308,14 +5552,14 @@
         <v>14</v>
       </c>
       <c r="Z53" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Study1_ongoing09_novice</v>
       </c>
       <c r="AA53" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>13</v>
       </c>
@@ -5347,13 +5591,13 @@
         <v>36</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="N54" s="3">
         <v>1</v>
@@ -5365,7 +5609,7 @@
         <v>2000</v>
       </c>
       <c r="Q54" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1/1/2000</v>
       </c>
       <c r="R54" s="3">
@@ -5378,15 +5622,15 @@
         <v>2020</v>
       </c>
       <c r="U54" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V54" s="3">
         <f t="shared" si="30"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V54" s="3">
+        <v>240</v>
+      </c>
+      <c r="W54" s="3">
         <f t="shared" si="31"/>
-        <v>240</v>
-      </c>
-      <c r="W54" s="3">
-        <f t="shared" si="32"/>
         <v>7305</v>
       </c>
       <c r="X54" s="3" t="s">
@@ -5396,14 +5640,14 @@
         <v>14</v>
       </c>
       <c r="Z54" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Study1_ongoing10_novice</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>14</v>
       </c>
@@ -5435,13 +5679,13 @@
         <v>37</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M55" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="N55" s="3">
         <v>1</v>
@@ -5453,7 +5697,7 @@
         <v>2000</v>
       </c>
       <c r="Q55" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1/1/2000</v>
       </c>
       <c r="R55" s="3">
@@ -5466,15 +5710,15 @@
         <v>2020</v>
       </c>
       <c r="U55" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V55" s="3">
         <f t="shared" si="30"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V55" s="3">
+        <v>240</v>
+      </c>
+      <c r="W55" s="3">
         <f t="shared" si="31"/>
-        <v>240</v>
-      </c>
-      <c r="W55" s="3">
-        <f t="shared" si="32"/>
         <v>7305</v>
       </c>
       <c r="X55" s="3" t="s">
@@ -5484,14 +5728,14 @@
         <v>14</v>
       </c>
       <c r="Z55" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Study1_ongoing10_novice</v>
       </c>
       <c r="AA55" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>15</v>
       </c>
@@ -5523,13 +5767,13 @@
         <v>38</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M56" s="10" t="s">
+        <v>157</v>
       </c>
       <c r="N56" s="3">
         <v>1</v>
@@ -5541,7 +5785,7 @@
         <v>2000</v>
       </c>
       <c r="Q56" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1/1/2000</v>
       </c>
       <c r="R56" s="3">
@@ -5554,15 +5798,15 @@
         <v>2020</v>
       </c>
       <c r="U56" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V56" s="3">
         <f t="shared" si="30"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V56" s="3">
+        <v>240</v>
+      </c>
+      <c r="W56" s="3">
         <f t="shared" si="31"/>
-        <v>240</v>
-      </c>
-      <c r="W56" s="3">
-        <f t="shared" si="32"/>
         <v>7305</v>
       </c>
       <c r="X56" s="3" t="s">
@@ -5572,14 +5816,14 @@
         <v>14</v>
       </c>
       <c r="Z56" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Study1_ongoing10_novice</v>
       </c>
       <c r="AA56" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>16</v>
       </c>
@@ -5611,13 +5855,13 @@
         <v>39</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M57" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="N57" s="3">
         <v>1</v>
@@ -5629,7 +5873,7 @@
         <v>2000</v>
       </c>
       <c r="Q57" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1/1/2000</v>
       </c>
       <c r="R57" s="3">
@@ -5642,15 +5886,15 @@
         <v>2020</v>
       </c>
       <c r="U57" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V57" s="3">
         <f t="shared" si="30"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V57" s="3">
+        <v>240</v>
+      </c>
+      <c r="W57" s="3">
         <f t="shared" si="31"/>
-        <v>240</v>
-      </c>
-      <c r="W57" s="3">
-        <f t="shared" si="32"/>
         <v>7305</v>
       </c>
       <c r="X57" s="3" t="s">
@@ -5660,14 +5904,14 @@
         <v>14</v>
       </c>
       <c r="Z57" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Study1_ongoing10_novice</v>
       </c>
       <c r="AA57" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>17</v>
       </c>
@@ -5699,13 +5943,13 @@
         <v>36</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M58" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="N58" s="3">
         <v>1</v>
@@ -5717,7 +5961,7 @@
         <v>2000</v>
       </c>
       <c r="Q58" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1/1/2000</v>
       </c>
       <c r="R58" s="3">
@@ -5730,15 +5974,15 @@
         <v>2020</v>
       </c>
       <c r="U58" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V58" s="3">
         <f t="shared" si="30"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V58" s="3">
+        <v>240</v>
+      </c>
+      <c r="W58" s="3">
         <f t="shared" si="31"/>
-        <v>240</v>
-      </c>
-      <c r="W58" s="3">
-        <f t="shared" si="32"/>
         <v>7305</v>
       </c>
       <c r="X58" s="3" t="s">
@@ -5748,14 +5992,14 @@
         <v>14</v>
       </c>
       <c r="Z58" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Study1_ongoing11_novice</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>18</v>
       </c>
@@ -5787,13 +6031,13 @@
         <v>37</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M59" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="N59" s="3">
         <v>1</v>
@@ -5805,7 +6049,7 @@
         <v>2000</v>
       </c>
       <c r="Q59" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1/1/2000</v>
       </c>
       <c r="R59" s="3">
@@ -5818,15 +6062,15 @@
         <v>2020</v>
       </c>
       <c r="U59" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V59" s="3">
         <f t="shared" si="30"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V59" s="3">
+        <v>240</v>
+      </c>
+      <c r="W59" s="3">
         <f t="shared" si="31"/>
-        <v>240</v>
-      </c>
-      <c r="W59" s="3">
-        <f t="shared" si="32"/>
         <v>7305</v>
       </c>
       <c r="X59" s="3" t="s">
@@ -5836,14 +6080,14 @@
         <v>14</v>
       </c>
       <c r="Z59" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Study1_ongoing11_novice</v>
       </c>
       <c r="AA59" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>19</v>
       </c>
@@ -5875,13 +6119,13 @@
         <v>38</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M60" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="N60" s="3">
         <v>1</v>
@@ -5893,7 +6137,7 @@
         <v>2000</v>
       </c>
       <c r="Q60" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1/1/2000</v>
       </c>
       <c r="R60" s="3">
@@ -5906,15 +6150,15 @@
         <v>2020</v>
       </c>
       <c r="U60" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V60" s="3">
         <f t="shared" si="30"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V60" s="3">
+        <v>240</v>
+      </c>
+      <c r="W60" s="3">
         <f t="shared" si="31"/>
-        <v>240</v>
-      </c>
-      <c r="W60" s="3">
-        <f t="shared" si="32"/>
         <v>7305</v>
       </c>
       <c r="X60" s="3" t="s">
@@ -5924,14 +6168,14 @@
         <v>14</v>
       </c>
       <c r="Z60" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Study1_ongoing11_novice</v>
       </c>
       <c r="AA60" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>20</v>
       </c>
@@ -5963,13 +6207,13 @@
         <v>39</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M61" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="N61" s="3">
         <v>1</v>
@@ -5981,7 +6225,7 @@
         <v>2000</v>
       </c>
       <c r="Q61" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1/1/2000</v>
       </c>
       <c r="R61" s="3">
@@ -5994,15 +6238,15 @@
         <v>2020</v>
       </c>
       <c r="U61" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V61" s="3">
         <f t="shared" si="30"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V61" s="3">
+        <v>240</v>
+      </c>
+      <c r="W61" s="3">
         <f t="shared" si="31"/>
-        <v>240</v>
-      </c>
-      <c r="W61" s="3">
-        <f t="shared" si="32"/>
         <v>7305</v>
       </c>
       <c r="X61" s="3" t="s">
@@ -6012,14 +6256,14 @@
         <v>14</v>
       </c>
       <c r="Z61" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Study1_ongoing11_novice</v>
       </c>
       <c r="AA61" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>21</v>
       </c>
@@ -6051,13 +6295,13 @@
         <v>36</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M62" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="N62" s="3">
         <v>1</v>
@@ -6069,7 +6313,7 @@
         <v>2000</v>
       </c>
       <c r="Q62" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1/1/2000</v>
       </c>
       <c r="R62" s="3">
@@ -6082,15 +6326,15 @@
         <v>2020</v>
       </c>
       <c r="U62" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V62" s="3">
         <f t="shared" si="30"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V62" s="3">
+        <v>240</v>
+      </c>
+      <c r="W62" s="3">
         <f t="shared" si="31"/>
-        <v>240</v>
-      </c>
-      <c r="W62" s="3">
-        <f t="shared" si="32"/>
         <v>7305</v>
       </c>
       <c r="X62" s="3" t="s">
@@ -6100,14 +6344,14 @@
         <v>14</v>
       </c>
       <c r="Z62" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Study1_ongoing12_novice</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>22</v>
       </c>
@@ -6139,13 +6383,13 @@
         <v>37</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M63" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="N63" s="3">
         <v>1</v>
@@ -6157,7 +6401,7 @@
         <v>2000</v>
       </c>
       <c r="Q63" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1/1/2000</v>
       </c>
       <c r="R63" s="3">
@@ -6170,15 +6414,15 @@
         <v>2020</v>
       </c>
       <c r="U63" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V63" s="3">
         <f t="shared" si="30"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V63" s="3">
+        <v>240</v>
+      </c>
+      <c r="W63" s="3">
         <f t="shared" si="31"/>
-        <v>240</v>
-      </c>
-      <c r="W63" s="3">
-        <f t="shared" si="32"/>
         <v>7305</v>
       </c>
       <c r="X63" s="3" t="s">
@@ -6188,14 +6432,14 @@
         <v>14</v>
       </c>
       <c r="Z63" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Study1_ongoing12_novice</v>
       </c>
       <c r="AA63" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>23</v>
       </c>
@@ -6227,13 +6471,13 @@
         <v>38</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M64" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="N64" s="3">
         <v>1</v>
@@ -6245,7 +6489,7 @@
         <v>2000</v>
       </c>
       <c r="Q64" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1/1/2000</v>
       </c>
       <c r="R64" s="3">
@@ -6258,15 +6502,15 @@
         <v>2020</v>
       </c>
       <c r="U64" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V64" s="3">
         <f t="shared" si="30"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V64" s="3">
+        <v>240</v>
+      </c>
+      <c r="W64" s="3">
         <f t="shared" si="31"/>
-        <v>240</v>
-      </c>
-      <c r="W64" s="3">
-        <f t="shared" si="32"/>
         <v>7305</v>
       </c>
       <c r="X64" s="3" t="s">
@@ -6276,14 +6520,14 @@
         <v>14</v>
       </c>
       <c r="Z64" s="3" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>Study1_ongoing12_novice</v>
       </c>
       <c r="AA64" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>24</v>
       </c>
@@ -6315,13 +6559,13 @@
         <v>39</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="M65" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="N65" s="3">
         <v>1</v>
@@ -6333,7 +6577,7 @@
         <v>2000</v>
       </c>
       <c r="Q65" s="3" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>1/1/2000</v>
       </c>
       <c r="R65" s="3">
@@ -6346,15 +6590,15 @@
         <v>2020</v>
       </c>
       <c r="U65" s="3" t="str">
+        <f t="shared" si="29"/>
+        <v>1/1/2020</v>
+      </c>
+      <c r="V65" s="3">
         <f t="shared" si="30"/>
-        <v>1/1/2020</v>
-      </c>
-      <c r="V65" s="3">
+        <v>240</v>
+      </c>
+      <c r="W65" s="3">
         <f t="shared" si="31"/>
-        <v>240</v>
-      </c>
-      <c r="W65" s="3">
-        <f t="shared" si="32"/>
         <v>7305</v>
       </c>
       <c r="X65" s="3" t="s">
@@ -6371,7 +6615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -6384,7 +6628,7 @@
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
+      <c r="M66" s="10"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
@@ -6400,7 +6644,7 @@
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
     </row>
-    <row r="67" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -6413,7 +6657,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
+      <c r="M67" s="10"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
@@ -6429,7 +6673,7 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
     </row>
-    <row r="68" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -6444,7 +6688,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>22</v>
       </c>
@@ -6459,7 +6703,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>23</v>
       </c>
@@ -6474,7 +6718,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>24</v>
       </c>
@@ -6489,7 +6733,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>25</v>
       </c>
@@ -6504,7 +6748,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>26</v>
       </c>
@@ -6519,7 +6763,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>27</v>
       </c>
@@ -6534,7 +6778,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>28</v>
       </c>
@@ -6549,7 +6793,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>29</v>
       </c>
@@ -6564,7 +6808,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>30</v>
       </c>
@@ -6586,16 +6830,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E1E0AF-DA5B-40E5-95D3-6E2BF13F316D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -6612,22 +6856,22 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6638,19 +6882,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB3FC2D-AFE2-4D06-B16B-F381ADB6C4BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="s">
         <v>35</v>
       </c>
@@ -6700,7 +6944,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6741,7 +6985,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6782,7 +7026,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6823,7 +7067,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6864,7 +7108,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6881,7 +7125,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6898,7 +7142,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6915,7 +7159,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6932,7 +7176,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6949,7 +7193,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6966,7 +7210,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6983,7 +7227,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7000,7 +7244,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7014,7 +7258,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7028,7 +7272,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7042,7 +7286,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7056,7 +7300,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7070,7 +7314,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7084,7 +7328,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7098,7 +7342,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7112,7 +7356,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7126,7 +7370,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7140,7 +7384,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7154,7 +7398,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7168,7 +7412,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F32" s="13" t="s">
         <v>69</v>
       </c>
@@ -7176,7 +7420,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>74</v>
       </c>
@@ -7184,7 +7428,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>75</v>
       </c>
@@ -7192,7 +7436,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>76</v>
       </c>
@@ -7206,21 +7450,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C1FC07-7656-468D-A6BC-261D242EE074}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -7231,210 +7475,1029 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="3" t="str">
-        <f>CONCATENATE(B2,"_",C2,"_",D2)</f>
-        <v xml:space="preserve">Study1_pilot_glasses </v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
+      <c r="F2" s="19" t="str">
+        <f>CONCATENATE(B2,"_",C2,"_",D2,"_",E2)</f>
+        <v xml:space="preserve">Study1_pilot_expert_glasses </v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="19" t="str">
+        <f>CONCATENATE(B3,"_",C3,"_",D3,"_",E3)</f>
+        <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="19" t="str">
+        <f>CONCATENATE(B4,"_",C4,"_",D4,"_",E4)</f>
+        <v>Study1_pilot_expert_cam2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>1</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="19" t="str">
+        <f>CONCATENATE(B5,"_",C5,"_",D5,"_",E5)</f>
+        <v>Study1_pilot_expert_cam3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>1</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="19" t="str">
+        <f>CONCATENATE(B6,"_",C6,"_",D6,"_",E6)</f>
+        <v>Study1_pilot_expert_cam4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>1</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="19" t="str">
+        <f>CONCATENATE(B7,"_",C7,"_",D7,"_",E7)</f>
+        <v xml:space="preserve">Study1_pilot_expert_ambient </v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D8" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="26" t="str">
+        <f>CONCATENATE(B8,"_",C8,"_",D8,"_",E8)</f>
+        <v xml:space="preserve">Study1_pilot_expert_glasses </v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="26">
+        <v>2</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="3" t="str">
-        <f t="shared" ref="E3:E13" si="0">CONCATENATE(B3,"_",C3,"_",D3)</f>
-        <v xml:space="preserve">Study1_pilot_cam1 </v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
+      <c r="F9" s="26" t="str">
+        <f t="shared" ref="F9:F25" si="0">CONCATENATE(B9,"_",C9,"_",D9,"_",E9)</f>
+        <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
+        <v>2</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Study1_pilot_expert_cam2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>2</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Study1_pilot_expert_cam3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>2</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Study1_pilot_expert_cam4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
+        <v>2</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Study2_pilot_expert_ambient </v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Study1_pilot_expert_glasses </v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>3</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>3</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="F16" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>Study1_pilot_cam2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+        <v>Study1_pilot_expert_cam2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>3</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Study1_pilot_expert_cam3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>3</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Study1_pilot_expert_cam4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
+        <v>3</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Study1_pilot_expert_ambient </v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B20" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D20" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Study1_pilot_expert_glasses </v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <v>4</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>4</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>Study1_pilot_expert_cam2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
+        <v>4</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="3" t="str">
+      <c r="F23" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>Study1_pilot_cam3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="3" t="s">
+        <v>Study1_pilot_expert_cam3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <v>4</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D24" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="3" t="str">
+      <c r="F24" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>Study1_pilot_cam4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="3" t="s">
+        <v>Study1_pilot_expert_cam4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
+        <v>4</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D25" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="3" t="str">
+      <c r="F25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Study1_pilot_ambient </v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="3" t="s">
+        <v xml:space="preserve">Study1_pilot_expert_ambient </v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
+        <v>1</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Study1_pilot_</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="D27" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="19" t="str">
+        <f>CONCATENATE(B27,"_",C27,"_",D27,"_",E27)</f>
+        <v xml:space="preserve">Study1_pilot_novice_glasses </v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>1</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Study1_pilot_</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D28" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="19" t="str">
+        <f>CONCATENATE(B28,"_",C28,"_",D28,"_",E28)</f>
+        <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
+        <v>1</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Study1_pilot_</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D29" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" s="19" t="str">
+        <f>CONCATENATE(B29,"_",C29,"_",D29,"_",E29)</f>
+        <v>Study1_pilot_novice_cam2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
+        <v>1</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Study1_pilot_</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D30" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="19" t="str">
+        <f>CONCATENATE(B30,"_",C30,"_",D30,"_",E30)</f>
+        <v>Study1_pilot_novice_cam3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="19">
+        <v>1</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Study1_pilot_</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="D31" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="19" t="str">
+        <f>CONCATENATE(B31,"_",C31,"_",D31,"_",E31)</f>
+        <v>Study1_pilot_novice_cam4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>1</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Study1_pilot_</v>
-      </c>
-    </row>
+      <c r="D32" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" s="19" t="str">
+        <f>CONCATENATE(B32,"_",C32,"_",D32,"_",E32)</f>
+        <v xml:space="preserve">Study1_pilot_novice_ambient </v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="26">
+        <v>2</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="26" t="str">
+        <f>CONCATENATE(B33,"_",C33,"_",D33,"_",E33)</f>
+        <v xml:space="preserve">Study1_pilot_novice_glasses </v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
+        <v>2</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="26" t="str">
+        <f t="shared" ref="F34:F50" si="1">CONCATENATE(B34,"_",C34,"_",D34,"_",E34)</f>
+        <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="26">
+        <v>2</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_novice_cam2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="26">
+        <v>2</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_novice_cam3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="26">
+        <v>2</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_novice_cam4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="26">
+        <v>2</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Study2_pilot_novice_ambient </v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="21">
+        <v>3</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Study1_pilot_novice_glasses </v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="21">
+        <v>3</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="21">
+        <v>3</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_novice_cam2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="21">
+        <v>3</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_novice_cam3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="21">
+        <v>3</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_novice_cam4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="21">
+        <v>3</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Study1_pilot_novice_ambient </v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="27">
+        <v>4</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Study1_pilot_novice_glasses </v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="27">
+        <v>4</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="27">
+        <v>4</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_novice_cam2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="27">
+        <v>4</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_novice_cam3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="27">
+        <v>4</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_novice_cam4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="27">
+        <v>4</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Study1_pilot_novice_ambient </v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/paper_1/0_data/Study1_mocklist.xlsx
+++ b/paper_1/0_data/Study1_mocklist.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konzertkasse\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\paper_1\0_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7D454C-94A3-44A3-AC27-2184A68D94DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="13035" tabRatio="661"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="661" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subject_list" sheetId="8" r:id="rId1"/>
     <sheet name="items" sheetId="11" r:id="rId2"/>
-    <sheet name="Counerbalancing" sheetId="10" r:id="rId3"/>
-    <sheet name="Videolabels" sheetId="9" r:id="rId4"/>
+    <sheet name="counerbalancing" sheetId="10" r:id="rId3"/>
+    <sheet name="videolabels" sheetId="9" r:id="rId4"/>
+    <sheet name="procedure" sheetId="12" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">subject_list!$A$1:$AA$77</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="275">
   <si>
     <t>study</t>
   </si>
@@ -234,33 +236,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>passive</t>
-  </si>
-  <si>
-    <t>handy</t>
-  </si>
-  <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>drawing</t>
-  </si>
-  <si>
-    <t>standwalk</t>
-  </si>
-  <si>
-    <t>chitchat</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>teach</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -303,9 +278,6 @@
     <t>itemtext</t>
   </si>
   <si>
-    <t>scale</t>
-  </si>
-  <si>
     <t>itemid</t>
   </si>
   <si>
@@ -526,13 +498,367 @@
   </si>
   <si>
     <t>060</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time </t>
+  </si>
+  <si>
+    <t>10.00 - 10.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">who </t>
+  </si>
+  <si>
+    <t>mandy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">introduction/briefing </t>
+  </si>
+  <si>
+    <t>teacher001</t>
+  </si>
+  <si>
+    <t>(15')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lecture </t>
+  </si>
+  <si>
+    <t>10.15 - 10.25</t>
+  </si>
+  <si>
+    <t>(10')</t>
+  </si>
+  <si>
+    <t>10.25 - 10.30</t>
+  </si>
+  <si>
+    <t>(5')</t>
+  </si>
+  <si>
+    <t>QA - teacher-students</t>
+  </si>
+  <si>
+    <t>teacher002</t>
+  </si>
+  <si>
+    <t>technical set-up + tests</t>
+  </si>
+  <si>
+    <t>9.00 - 10.45</t>
+  </si>
+  <si>
+    <t>(45')</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>10.30 - 10.45</t>
+  </si>
+  <si>
+    <t>data saving/</t>
+  </si>
+  <si>
+    <t>teacher changing</t>
+  </si>
+  <si>
+    <t>10.45 - 10.55</t>
+  </si>
+  <si>
+    <t>10.55 - 11.00</t>
+  </si>
+  <si>
+    <t>11.00 - 11.15</t>
+  </si>
+  <si>
+    <t>11.15 - 11.25</t>
+  </si>
+  <si>
+    <t>teacher003</t>
+  </si>
+  <si>
+    <t>teacher004</t>
+  </si>
+  <si>
+    <t>11.25 - 11.30</t>
+  </si>
+  <si>
+    <t>11.30 - 11.45</t>
+  </si>
+  <si>
+    <t>11.45 - 11.55</t>
+  </si>
+  <si>
+    <t>11.55 - 12.00</t>
+  </si>
+  <si>
+    <t>dismantling</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>12.00 - 12.15</t>
+  </si>
+  <si>
+    <t>questionnaire</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>(30')</t>
+  </si>
+  <si>
+    <t>12.15 - 12.45</t>
+  </si>
+  <si>
+    <t>yelling</t>
+  </si>
+  <si>
+    <t>verbal disturbances</t>
+  </si>
+  <si>
+    <t>chitchating</t>
+  </si>
+  <si>
+    <t>LOHMANN (2003)</t>
+  </si>
+  <si>
+    <t>insulting the neighbour</t>
+  </si>
+  <si>
+    <t>agitation / restless</t>
+  </si>
+  <si>
+    <t>aggressive behaviour</t>
+  </si>
+  <si>
+    <t>drumming on the table</t>
+  </si>
+  <si>
+    <t>wobbling with the chair</t>
+  </si>
+  <si>
+    <t>wriggling (zappeln)</t>
+  </si>
+  <si>
+    <t>walking around</t>
+  </si>
+  <si>
+    <t>outburst of rage</t>
+  </si>
+  <si>
+    <t>giving a sign by hand with noise (lautes melden)</t>
+  </si>
+  <si>
+    <t>disturbance</t>
+  </si>
+  <si>
+    <t>teaching</t>
+  </si>
+  <si>
+    <t>lack of enthusiasm = passive</t>
+  </si>
+  <si>
+    <t>inattentive (drawing)</t>
+  </si>
+  <si>
+    <t>disinterested (looking at the phone)</t>
+  </si>
+  <si>
+    <t>absent (sleeping)</t>
+  </si>
+  <si>
+    <t>calibration</t>
+  </si>
+  <si>
+    <t>Klassenmanagement</t>
+  </si>
+  <si>
+    <t>Die gesamte Unterrichtsstunde wurde für den Lernstoff verwendet</t>
+  </si>
+  <si>
+    <t>Ich habealles mitbekommen, was in der Klasse passiert ist</t>
+  </si>
+  <si>
+    <t>Den Schüler/innen war jederzeit klar, was sie tun sollten</t>
+  </si>
+  <si>
+    <t>Die Schüler/innen konnten ungestört arbeiten</t>
+  </si>
+  <si>
+    <t>Die Schüler/innen waren die ganze Stunde über aktiv bei der Sache</t>
+  </si>
+  <si>
+    <t>scale: stimme nicht zu /stimme eher nicht zu / stimme eher zu / stimme zu</t>
+  </si>
+  <si>
+    <t>A. Helmke, T. Helmke, G. Lenske, G. Pham, A.-K. Praetorius, F.-W. Schrader &amp; M. Ade-Thurow</t>
+  </si>
+  <si>
+    <t>Unterrichtsdiagnostik mit EMU (Evidenzbasierte Methoden der Unterrichtsdiagnostik, 2018)</t>
+  </si>
+  <si>
+    <t>Lernförderliches Klima und Motivierung</t>
+  </si>
+  <si>
+    <t>Ich war freundlich zu den Schüler/innen</t>
+  </si>
+  <si>
+    <t>Es gab Aufgaben, die etwas mit den Interessen oder den Alltagserfahrungen der Schüler/innen zu tun haben</t>
+  </si>
+  <si>
+    <t>Ich habe Fehler nicht kritisiert, sondern als Lerngelegenheit betrachtet</t>
+  </si>
+  <si>
+    <t>Ich habe die Schüler/innen ausreden lassen, wenn sie dran waren</t>
+  </si>
+  <si>
+    <t>Wenn ich Fragen oder Aufgaben gestellt habe, habe ich den Schüler/innen ausreichend Zeit zum Überlegen gelassen</t>
+  </si>
+  <si>
+    <t>Meine Hinweise und Rückmeldungen waren für die Schüler/innen hilfreich</t>
+  </si>
+  <si>
+    <t>Klarheit und Strukturiertheit</t>
+  </si>
+  <si>
+    <t>Den Schüler/innen ist klar, was sie in dieser Stunde lernen sollten</t>
+  </si>
+  <si>
+    <t>Ich habe so erklärt, dass die Schüler/innen alles verstanden haben</t>
+  </si>
+  <si>
+    <t>Der Lernstoff wurde sichtbar gemacht, zum Beispiel durch Schaubild, Mindmap, Poster oder Zeichnung</t>
+  </si>
+  <si>
+    <t>Ich habe darauf geachtet, dass jeder klar und deutlich spricht</t>
+  </si>
+  <si>
+    <t>Die wichtigsten Punkte wurden zusammengefasst</t>
+  </si>
+  <si>
+    <t>Aktivierungund Förderung</t>
+  </si>
+  <si>
+    <t>Die Schüler/innen haben sich mit eigenen Beiträgen am Unterrichtsgespräch beteiligt</t>
+  </si>
+  <si>
+    <t>Die Schüler/innenhaben sich wechselseitig etwas erklärt, sich Fragen gestellt oder Rückmeldung gegeben</t>
+  </si>
+  <si>
+    <t>Es gab Fragen oder Aufgaben, bei denen die Schüler/innen richtig nachdenken mussten</t>
+  </si>
+  <si>
+    <t>Den Schüler/innen standen Aufgaben mit unterschiedlichen Schwierigkeitsstufen und unterschiedliche Hilfen zur Wahl</t>
+  </si>
+  <si>
+    <t>Es gab Aufgaben, bei denen die Schüler/innen selbst entscheiden konnten, auf welche Weise sie sie bearbeiten</t>
+  </si>
+  <si>
+    <t>Ich habe darauf geachtet, dass alle den Lernstoff des Unterrichts sicher beherrschen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haltung / Blick </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stimme </t>
+  </si>
+  <si>
+    <t>Verbale / nonverbale Intervention</t>
+  </si>
+  <si>
+    <t>Alter in Jahren</t>
+  </si>
+  <si>
+    <t>Geschlecht</t>
+  </si>
+  <si>
+    <t>m w div opt-out</t>
+  </si>
+  <si>
+    <t>Berufserfahrung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Lehrkraft stand gerade und aufrecht. </t>
+  </si>
+  <si>
+    <t>Die Lehrkraft hat uns / den Schüler*innen direkt in die Augen geschaut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Lehrkraft hatte die ganze Klasse im Blick. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Lehrkraft wusste immer genau, was in der Klasse vor sich geht. </t>
+  </si>
+  <si>
+    <t>Während der Stunde ging die oft Lehrkraft durch die Reihen der Klasse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Gestik und Mimik unterstütze den Ausdruck der Lehrkraft. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich hatte den Eindruck, die Lehrkraft hat mich oft angesehen. </t>
+  </si>
+  <si>
+    <t>Ergänzung der Präsenzinidkatoren nach Kiel, Frey &amp; Weiß (2013)</t>
+  </si>
+  <si>
+    <t>Die Lehrkraft sprach klar, deutlich und langsam.</t>
+  </si>
+  <si>
+    <t>Die Lehrkraft drückte sich klar und verständlich aus.</t>
+  </si>
+  <si>
+    <t>Die Lehrkraft verwendete ausschließlich Standardsprache im Unterricht.</t>
+  </si>
+  <si>
+    <t>Die Arbeitsaufträge waren präzise, klar und kurz formuliert.</t>
+  </si>
+  <si>
+    <t>Vor einem Methodenwechsel erklärte die Lehrkraft nochmals kurz das Vorgehen und die geltenden Regeln (z.B. bei Gruppenarbeit).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meine Einschätzung des Redeanteils der Lehrkraft liegt bei ____ %. </t>
+  </si>
+  <si>
+    <t>Bei Unterrichtsstörungen verwendete die Lehrkraft oft nonverbale Signale, wie z. B. Stirnrunzeln oder mahnende Blicke.</t>
+  </si>
+  <si>
+    <t>Bei Unterrichtsstörungen bewegte sich die Lehrkraft oft auf störende/unruhig werdende Schüler*innen zu, um sie zu ermahnen.</t>
+  </si>
+  <si>
+    <t>Bei Unterrichtsstörungen sprach die Lehrkraft störende Schüler*innen direkt an.</t>
+  </si>
+  <si>
+    <t>Als Reaktion auf eine Unterrichtsstörung ließ die Lehrkraft Schüler*innen geltende Regeln wiederholen.</t>
+  </si>
+  <si>
+    <t>DEMOGRAPHISCHE DATEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -559,8 +885,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,8 +985,43 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -657,11 +1038,139 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -693,10 +1202,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -723,8 +1229,195 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1104,39 +1797,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A9" sqref="A2:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" style="11" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.54296875" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" customWidth="1"/>
+    <col min="11" max="11" width="10.81640625" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" customWidth="1"/>
+    <col min="13" max="13" width="13.26953125" style="11" customWidth="1"/>
+    <col min="14" max="14" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="19" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" customWidth="1"/>
+    <col min="24" max="24" width="12.81640625" customWidth="1"/>
+    <col min="25" max="25" width="11.1796875" customWidth="1"/>
     <col min="26" max="26" width="55" customWidth="1"/>
-    <col min="27" max="27" width="65.85546875" customWidth="1"/>
+    <col min="27" max="27" width="65.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -1219,7 +1912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1239,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>66</v>
@@ -1257,7 +1950,7 @@
         <v>41</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="N2" s="3">
         <v>21</v>
@@ -1266,11 +1959,11 @@
         <v>2</v>
       </c>
       <c r="P2" s="3">
-        <v>1965</v>
+        <v>1969</v>
       </c>
       <c r="Q2" s="3" t="str">
         <f t="shared" ref="Q2" si="0">N2&amp;"/"&amp;O2&amp;"/"&amp;P2</f>
-        <v>21/2/1965</v>
+        <v>21/2/1969</v>
       </c>
       <c r="R2" s="3">
         <v>29</v>
@@ -1287,11 +1980,11 @@
       </c>
       <c r="V2" s="3">
         <f t="shared" ref="V2" si="1">DATEDIF(Q2, U2, "m")</f>
-        <v>665</v>
+        <v>617</v>
       </c>
       <c r="W2" s="3">
         <f t="shared" ref="W2" si="2">DATEDIF(Q2, U2, "d")</f>
-        <v>20247</v>
+        <v>18786</v>
       </c>
       <c r="X2" s="3">
         <v>1</v>
@@ -1307,7 +2000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1330,7 +2023,7 @@
         <v>61</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I3" s="3">
         <v>9</v>
@@ -1345,20 +2038,20 @@
         <v>41</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="N3" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="O3" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P3" s="3">
-        <v>2000</v>
+        <v>1975</v>
       </c>
       <c r="Q3" s="3" t="str">
         <f t="shared" ref="Q3:Q6" si="3">N3&amp;"/"&amp;O3&amp;"/"&amp;P3</f>
-        <v>1/1/2000</v>
+        <v>20/12/1975</v>
       </c>
       <c r="R3" s="3">
         <v>29</v>
@@ -1375,11 +2068,11 @@
       </c>
       <c r="V3" s="3">
         <f t="shared" ref="V3:V13" si="5">DATEDIF(Q3, U3, "m")</f>
-        <v>246</v>
+        <v>535</v>
       </c>
       <c r="W3" s="3">
         <f t="shared" ref="W3:W13" si="6">DATEDIF(Q3, U3, "d")</f>
-        <v>7515</v>
+        <v>16293</v>
       </c>
       <c r="X3" s="3">
         <v>1</v>
@@ -1395,7 +2088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1418,7 +2111,7 @@
         <v>61</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I4" s="3">
         <v>12</v>
@@ -1433,20 +2126,20 @@
         <v>41</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="N4" s="3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="O4" s="3">
         <v>1</v>
       </c>
       <c r="P4" s="3">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="Q4" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>1/1/2000</v>
+        <v>15/1/1991</v>
       </c>
       <c r="R4" s="3">
         <v>29</v>
@@ -1463,11 +2156,11 @@
       </c>
       <c r="V4" s="3">
         <f t="shared" si="5"/>
-        <v>246</v>
+        <v>354</v>
       </c>
       <c r="W4" s="3">
         <f t="shared" si="6"/>
-        <v>7515</v>
+        <v>10788</v>
       </c>
       <c r="X4" s="3">
         <v>1</v>
@@ -1483,7 +2176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1506,7 +2199,7 @@
         <v>62</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I5" s="3">
         <v>14</v>
@@ -1521,20 +2214,20 @@
         <v>41</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="N5" s="3">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="O5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P5" s="3">
-        <v>2000</v>
+        <v>1993</v>
       </c>
       <c r="Q5" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>1/1/2000</v>
+        <v>23/3/1993</v>
       </c>
       <c r="R5" s="3">
         <v>29</v>
@@ -1551,11 +2244,11 @@
       </c>
       <c r="V5" s="3">
         <f t="shared" si="5"/>
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="W5" s="3">
         <f t="shared" si="6"/>
-        <v>7515</v>
+        <v>9990</v>
       </c>
       <c r="X5" s="3">
         <v>1</v>
@@ -1571,7 +2264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1609,7 +2302,7 @@
         <v>41</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="N6" s="3">
         <v>5</v>
@@ -1659,7 +2352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1697,7 +2390,7 @@
         <v>41</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="N7" s="3">
         <v>1</v>
@@ -1747,7 +2440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1785,7 +2478,7 @@
         <v>41</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="N8" s="3">
         <v>1</v>
@@ -1835,7 +2528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1873,7 +2566,7 @@
         <v>41</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>1</v>
@@ -1923,7 +2616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1961,7 +2654,7 @@
         <v>41</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="N10" s="3">
         <v>1</v>
@@ -2011,7 +2704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2049,7 +2742,7 @@
         <v>41</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -2099,7 +2792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2137,7 +2830,7 @@
         <v>41</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="N12" s="3">
         <v>1</v>
@@ -2187,7 +2880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2225,7 +2918,7 @@
         <v>41</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="N13" s="3">
         <v>1</v>
@@ -2275,7 +2968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2304,7 +2997,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2333,7 +3026,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -2371,7 +3064,7 @@
         <v>41</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="N16" s="3">
         <v>1</v>
@@ -2421,7 +3114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -2444,7 +3137,7 @@
         <v>61</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I17" s="3">
         <v>11</v>
@@ -2459,7 +3152,7 @@
         <v>41</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="N17" s="3">
         <v>1</v>
@@ -2509,7 +3202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -2532,7 +3225,7 @@
         <v>61</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I18" s="3">
         <v>10</v>
@@ -2547,7 +3240,7 @@
         <v>41</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="N18" s="3">
         <v>1</v>
@@ -2597,7 +3290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -2620,7 +3313,7 @@
         <v>61</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I19" s="3">
         <v>15</v>
@@ -2635,7 +3328,7 @@
         <v>41</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="N19" s="3">
         <v>1</v>
@@ -2685,7 +3378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>5</v>
       </c>
@@ -2723,7 +3416,7 @@
         <v>41</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="N20" s="3">
         <v>1</v>
@@ -2773,7 +3466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>6</v>
       </c>
@@ -2796,7 +3489,7 @@
         <v>62</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I21" s="3">
         <v>12</v>
@@ -2811,7 +3504,7 @@
         <v>41</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="N21" s="3">
         <v>1</v>
@@ -2861,7 +3554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>7</v>
       </c>
@@ -2884,7 +3577,7 @@
         <v>62</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I22" s="3">
         <v>16</v>
@@ -2899,7 +3592,7 @@
         <v>41</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="N22" s="3">
         <v>1</v>
@@ -2949,7 +3642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>8</v>
       </c>
@@ -2972,7 +3665,7 @@
         <v>62</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I23" s="3">
         <v>11</v>
@@ -2987,7 +3680,7 @@
         <v>41</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="N23" s="3">
         <v>1</v>
@@ -3037,7 +3730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>9</v>
       </c>
@@ -3075,7 +3768,7 @@
         <v>41</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="N24" s="3">
         <v>1</v>
@@ -3125,7 +3818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>10</v>
       </c>
@@ -3148,7 +3841,7 @@
         <v>61</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I25" s="3">
         <v>15</v>
@@ -3163,7 +3856,7 @@
         <v>41</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="N25" s="3">
         <v>1</v>
@@ -3213,7 +3906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>11</v>
       </c>
@@ -3236,7 +3929,7 @@
         <v>61</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I26" s="3">
         <v>13</v>
@@ -3251,7 +3944,7 @@
         <v>41</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="N26" s="3">
         <v>1</v>
@@ -3301,7 +3994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>12</v>
       </c>
@@ -3324,7 +4017,7 @@
         <v>61</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I27" s="3">
         <v>12</v>
@@ -3339,7 +4032,7 @@
         <v>41</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="N27" s="3">
         <v>1</v>
@@ -3389,7 +4082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>13</v>
       </c>
@@ -3427,7 +4120,7 @@
         <v>41</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="N28" s="3">
         <v>1</v>
@@ -3477,7 +4170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>14</v>
       </c>
@@ -3500,7 +4193,7 @@
         <v>61</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I29" s="3">
         <v>11</v>
@@ -3515,7 +4208,7 @@
         <v>41</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="N29" s="3">
         <v>1</v>
@@ -3565,7 +4258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>15</v>
       </c>
@@ -3588,7 +4281,7 @@
         <v>61</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I30" s="3">
         <v>10</v>
@@ -3603,7 +4296,7 @@
         <v>41</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="N30" s="3">
         <v>1</v>
@@ -3653,7 +4346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>16</v>
       </c>
@@ -3676,7 +4369,7 @@
         <v>61</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I31" s="3">
         <v>15</v>
@@ -3691,7 +4384,7 @@
         <v>41</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="N31" s="3">
         <v>1</v>
@@ -3741,7 +4434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>17</v>
       </c>
@@ -3779,7 +4472,7 @@
         <v>41</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="N32" s="3">
         <v>1</v>
@@ -3829,7 +4522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>18</v>
       </c>
@@ -3852,7 +4545,7 @@
         <v>62</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I33" s="3">
         <v>12</v>
@@ -3867,7 +4560,7 @@
         <v>41</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="N33" s="3">
         <v>1</v>
@@ -3917,7 +4610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>19</v>
       </c>
@@ -3940,7 +4633,7 @@
         <v>62</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I34" s="3">
         <v>16</v>
@@ -3955,7 +4648,7 @@
         <v>41</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="N34" s="3">
         <v>1</v>
@@ -4005,7 +4698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>20</v>
       </c>
@@ -4028,7 +4721,7 @@
         <v>62</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I35" s="3">
         <v>11</v>
@@ -4043,7 +4736,7 @@
         <v>41</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="N35" s="3">
         <v>1</v>
@@ -4093,7 +4786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>21</v>
       </c>
@@ -4131,7 +4824,7 @@
         <v>41</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="N36" s="3">
         <v>1</v>
@@ -4181,7 +4874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>22</v>
       </c>
@@ -4204,7 +4897,7 @@
         <v>61</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I37" s="3">
         <v>15</v>
@@ -4219,7 +4912,7 @@
         <v>41</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="N37" s="3">
         <v>1</v>
@@ -4269,7 +4962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>23</v>
       </c>
@@ -4292,7 +4985,7 @@
         <v>61</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I38" s="3">
         <v>13</v>
@@ -4307,7 +5000,7 @@
         <v>41</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="N38" s="3">
         <v>1</v>
@@ -4357,7 +5050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>24</v>
       </c>
@@ -4380,7 +5073,7 @@
         <v>61</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="I39" s="3">
         <v>12</v>
@@ -4395,7 +5088,7 @@
         <v>41</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="N39" s="3">
         <v>1</v>
@@ -4445,7 +5138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4474,7 +5167,7 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
     </row>
-    <row r="41" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4503,7 +5196,7 @@
       <c r="Z41" s="3"/>
       <c r="AA41" s="3"/>
     </row>
-    <row r="42" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -4541,7 +5234,7 @@
         <v>41</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="N42" s="3">
         <v>1</v>
@@ -4591,7 +5284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -4629,7 +5322,7 @@
         <v>41</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="N43" s="3">
         <v>1</v>
@@ -4679,7 +5372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>3</v>
       </c>
@@ -4717,7 +5410,7 @@
         <v>41</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="N44" s="3">
         <v>1</v>
@@ -4767,7 +5460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>4</v>
       </c>
@@ -4805,7 +5498,7 @@
         <v>41</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="N45" s="3">
         <v>1</v>
@@ -4855,7 +5548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>5</v>
       </c>
@@ -4893,7 +5586,7 @@
         <v>41</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="N46" s="3">
         <v>1</v>
@@ -4943,7 +5636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>6</v>
       </c>
@@ -4981,7 +5674,7 @@
         <v>41</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="N47" s="3">
         <v>1</v>
@@ -5031,7 +5724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>7</v>
       </c>
@@ -5069,7 +5762,7 @@
         <v>41</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="N48" s="3">
         <v>1</v>
@@ -5119,7 +5812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>8</v>
       </c>
@@ -5157,7 +5850,7 @@
         <v>41</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="N49" s="3">
         <v>1</v>
@@ -5207,7 +5900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>9</v>
       </c>
@@ -5245,7 +5938,7 @@
         <v>41</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="N50" s="3">
         <v>1</v>
@@ -5295,7 +5988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>10</v>
       </c>
@@ -5333,7 +6026,7 @@
         <v>41</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="N51" s="3">
         <v>1</v>
@@ -5383,7 +6076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:27" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>11</v>
       </c>
@@ -5421,7 +6114,7 @@
         <v>41</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="N52" s="3">
         <v>1</v>
@@ -5471,7 +6164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>12</v>
       </c>
@@ -5509,7 +6202,7 @@
         <v>41</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="N53" s="3">
         <v>1</v>
@@ -5559,7 +6252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>13</v>
       </c>
@@ -5597,7 +6290,7 @@
         <v>41</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="N54" s="3">
         <v>1</v>
@@ -5647,7 +6340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>14</v>
       </c>
@@ -5685,7 +6378,7 @@
         <v>41</v>
       </c>
       <c r="M55" s="10" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="N55" s="3">
         <v>1</v>
@@ -5735,7 +6428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>15</v>
       </c>
@@ -5773,7 +6466,7 @@
         <v>41</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="N56" s="3">
         <v>1</v>
@@ -5823,7 +6516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>16</v>
       </c>
@@ -5861,7 +6554,7 @@
         <v>41</v>
       </c>
       <c r="M57" s="10" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="N57" s="3">
         <v>1</v>
@@ -5911,7 +6604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>17</v>
       </c>
@@ -5949,7 +6642,7 @@
         <v>41</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="N58" s="3">
         <v>1</v>
@@ -5999,7 +6692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>18</v>
       </c>
@@ -6037,7 +6730,7 @@
         <v>41</v>
       </c>
       <c r="M59" s="10" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N59" s="3">
         <v>1</v>
@@ -6087,7 +6780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>19</v>
       </c>
@@ -6125,7 +6818,7 @@
         <v>41</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="N60" s="3">
         <v>1</v>
@@ -6175,7 +6868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>20</v>
       </c>
@@ -6213,7 +6906,7 @@
         <v>41</v>
       </c>
       <c r="M61" s="10" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="N61" s="3">
         <v>1</v>
@@ -6263,7 +6956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>21</v>
       </c>
@@ -6301,7 +6994,7 @@
         <v>41</v>
       </c>
       <c r="M62" s="10" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="N62" s="3">
         <v>1</v>
@@ -6351,7 +7044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>22</v>
       </c>
@@ -6389,7 +7082,7 @@
         <v>41</v>
       </c>
       <c r="M63" s="10" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="N63" s="3">
         <v>1</v>
@@ -6439,7 +7132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>23</v>
       </c>
@@ -6477,7 +7170,7 @@
         <v>41</v>
       </c>
       <c r="M64" s="10" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="N64" s="3">
         <v>1</v>
@@ -6527,7 +7220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>24</v>
       </c>
@@ -6565,7 +7258,7 @@
         <v>41</v>
       </c>
       <c r="M65" s="10" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="N65" s="3">
         <v>1</v>
@@ -6615,7 +7308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -6644,7 +7337,7 @@
       <c r="Z66" s="3"/>
       <c r="AA66" s="3"/>
     </row>
-    <row r="67" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -6673,7 +7366,7 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
     </row>
-    <row r="68" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
@@ -6688,7 +7381,7 @@
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>22</v>
       </c>
@@ -6703,7 +7396,7 @@
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>23</v>
       </c>
@@ -6718,7 +7411,7 @@
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>24</v>
       </c>
@@ -6733,7 +7426,7 @@
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>25</v>
       </c>
@@ -6748,7 +7441,7 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>26</v>
       </c>
@@ -6763,7 +7456,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>27</v>
       </c>
@@ -6778,7 +7471,7 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>28</v>
       </c>
@@ -6793,7 +7486,7 @@
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>29</v>
       </c>
@@ -6808,7 +7501,7 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>30</v>
       </c>
@@ -6830,1674 +7523,2497 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.54296875" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="48.26953125" customWidth="1"/>
+    <col min="4" max="4" width="63.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="95" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="95" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="95" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="87" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27">
+        <v>1</v>
+      </c>
+      <c r="B5" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="91" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="91" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="91" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="91" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="92"/>
+    </row>
+    <row r="11" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="27">
+        <v>2</v>
+      </c>
+      <c r="B11" s="88" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="91" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="91" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="91" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="91" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="91" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="92"/>
+    </row>
+    <row r="18" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="27">
+        <v>3</v>
+      </c>
+      <c r="B18" s="89" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="91" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="91" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="91" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="91" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="92"/>
+    </row>
+    <row r="24" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="27">
+        <v>4</v>
+      </c>
+      <c r="B24" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="91" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="91" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="91" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="91" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="91" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="91" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" s="97" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:3" s="96" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" s="94"/>
+    </row>
+    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="27">
+        <v>5</v>
+      </c>
+      <c r="B32" s="90" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" s="91" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="91" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="91" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="91" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="91" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="91" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="91" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="92"/>
+    </row>
+    <row r="40" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="27">
+        <v>6</v>
+      </c>
+      <c r="B40" s="90" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" s="91" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="91" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="91" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="91" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="91" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="91" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="92"/>
+    </row>
+    <row r="47" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="27">
+        <v>7</v>
+      </c>
+      <c r="B47" s="90" t="s">
+        <v>250</v>
+      </c>
+      <c r="C47" s="91" t="s">
+        <v>269</v>
+      </c>
+      <c r="E47" s="93"/>
+    </row>
+    <row r="48" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="91" t="s">
+        <v>270</v>
+      </c>
+      <c r="E48" s="93"/>
+    </row>
+    <row r="49" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="91" t="s">
+        <v>271</v>
+      </c>
+      <c r="E49" s="93"/>
+    </row>
+    <row r="50" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="91" t="s">
+        <v>272</v>
+      </c>
+      <c r="E50" s="93"/>
+    </row>
+    <row r="51" spans="1:5" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E51" s="92"/>
+    </row>
+    <row r="52" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="94" t="s">
+        <v>273</v>
+      </c>
+      <c r="B52" s="94"/>
+      <c r="E52" s="93"/>
+    </row>
+    <row r="53" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="93" t="s">
+        <v>274</v>
+      </c>
+      <c r="B53" s="93"/>
+    </row>
+    <row r="54" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="B54" s="93"/>
+    </row>
+    <row r="55" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="B55" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C55" s="93"/>
+    </row>
+    <row r="56" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="B56" s="93"/>
+      <c r="C56" s="93"/>
+    </row>
+    <row r="57" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="93"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q33"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.26953125" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.08984375" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" customWidth="1"/>
+    <col min="7" max="7" width="42.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.90625" customWidth="1"/>
+    <col min="9" max="9" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.1796875" customWidth="1"/>
+    <col min="11" max="11" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.08984375" customWidth="1"/>
+    <col min="13" max="13" width="40.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="80" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="80" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="80" t="s">
+        <v>212</v>
+      </c>
+      <c r="L1" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="80" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="G2" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="82"/>
+      <c r="I2" s="83" t="s">
+        <v>217</v>
+      </c>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2" s="82"/>
+      <c r="M2" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" s="84"/>
+      <c r="I3" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="J3" s="82"/>
+      <c r="K3" s="83" t="s">
+        <v>216</v>
+      </c>
+      <c r="L3" s="82"/>
+      <c r="M3" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" s="84"/>
+      <c r="I4" s="83" t="s">
+        <v>201</v>
+      </c>
+      <c r="J4" s="82"/>
+      <c r="K4" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="L4" s="82"/>
+      <c r="M4" s="84" t="s">
+        <v>209</v>
+      </c>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="84"/>
+      <c r="I5" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="J5" s="82"/>
+      <c r="K5" s="83" t="s">
+        <v>201</v>
+      </c>
+      <c r="L5" s="82"/>
+      <c r="M5" s="81" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="77"/>
+      <c r="G6" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" s="77"/>
+      <c r="I6" s="83" t="s">
+        <v>203</v>
+      </c>
+      <c r="K6" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="M6" s="83" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="77"/>
+      <c r="G7" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="77"/>
+      <c r="I7" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="83" t="s">
+        <v>203</v>
+      </c>
+      <c r="M7" s="83" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="77"/>
+      <c r="G8" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" s="77"/>
+      <c r="I8" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="M8" s="83" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="77"/>
+      <c r="G9" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" s="77"/>
+      <c r="I9" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="K9" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="M9" s="84" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="77"/>
+      <c r="G10" s="84" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" s="77"/>
+      <c r="I10" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="M10" s="83" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="77"/>
+      <c r="G11" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" s="77"/>
+      <c r="I11" s="84" t="s">
+        <v>209</v>
+      </c>
+      <c r="K11" s="83" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="77"/>
+      <c r="G12" s="83" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" s="77"/>
+      <c r="I12" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="K12" s="84" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="77"/>
+      <c r="G13" s="83" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="77"/>
+      <c r="I13" s="83" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="76" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" s="78" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="73" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" s="75" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="D30" s="75" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" s="31"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="74"/>
+      <c r="C33" s="79" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" s="74"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="16" t="str">
+        <f t="shared" ref="F2:F8" si="0">CONCATENATE(B2,"_",C2,"_",D2,"_",E2)</f>
+        <v xml:space="preserve">Study1_pilot_expert_glasses </v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Study1_pilot_expert_cam2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="16">
+        <v>1</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Study1_pilot_expert_cam3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="16">
+        <v>1</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F6" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Study1_pilot_expert_cam4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="16">
+        <v>1</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F7" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Study1_pilot_expert_ambient </v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="23">
+        <v>2</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Study1_pilot_expert_glasses </v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="23">
+        <v>2</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="23" t="str">
+        <f t="shared" ref="F9:F25" si="1">CONCATENATE(B9,"_",C9,"_",D9,"_",E9)</f>
+        <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="23">
+        <v>2</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_expert_cam2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="23">
+        <v>2</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_expert_cam3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="23">
+        <v>2</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_expert_cam4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="23">
+        <v>2</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C13" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Study2_pilot_expert_ambient </v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="18">
+        <v>3</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Study1_pilot_expert_glasses </v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="18">
+        <v>3</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="18">
+        <v>3</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_expert_cam2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="18">
+        <v>3</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_expert_cam3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_expert_cam4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="18">
+        <v>3</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Study1_pilot_expert_ambient </v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="24">
+        <v>4</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Study1_pilot_expert_glasses </v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="24">
+        <v>4</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="24">
+        <v>4</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_expert_cam2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="24">
+        <v>4</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_expert_cam3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Study1_pilot_expert_cam4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="24">
+        <v>4</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Study1_pilot_expert_ambient </v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="15" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="25"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="16">
+        <v>1</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="16" t="str">
+        <f t="shared" ref="F27:F33" si="2">CONCATENATE(B27,"_",C27,"_",D27,"_",E27)</f>
+        <v xml:space="preserve">Study1_pilot_novice_glasses </v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="16">
+        <v>1</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="16">
+        <v>1</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>Study1_pilot_novice_cam2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="16">
+        <v>1</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>Study1_pilot_novice_cam3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="16">
+        <v>1</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>Study1_pilot_novice_cam4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="16">
+        <v>1</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Study1_pilot_novice_ambient </v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="23">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B33" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">Study1_pilot_novice_glasses </v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="23">
+        <v>2</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="23" t="str">
+        <f t="shared" ref="F34:F50" si="3">CONCATENATE(B34,"_",C34,"_",D34,"_",E34)</f>
+        <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="23">
+        <v>2</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>Study1_pilot_novice_cam2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="23">
+        <v>2</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>Study1_pilot_novice_cam3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="23">
+        <v>2</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>Study1_pilot_novice_cam4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="23">
+        <v>2</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Study2_pilot_novice_ambient </v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="18">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B39" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Study1_pilot_novice_glasses </v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="18">
+        <v>3</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="18">
+        <v>3</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>Study1_pilot_novice_cam2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="18">
+        <v>3</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>Study1_pilot_novice_cam3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="18">
+        <v>3</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>Study1_pilot_novice_cam4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="18">
+        <v>3</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Study1_pilot_novice_ambient </v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="24">
         <v>4</v>
       </c>
-    </row>
+      <c r="B45" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Study1_pilot_novice_glasses </v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="24">
+        <v>4</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="24">
+        <v>4</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>Study1_pilot_novice_cam2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="24">
+        <v>4</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>Study1_pilot_novice_cam3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="24">
+        <v>4</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v>Study1_pilot_novice_cam4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="24">
+        <v>4</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" s="20" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">Study1_pilot_novice_ambient </v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q35"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72BCB49E-F251-46D8-AB80-3127C0BB634B}">
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" style="29" customWidth="1"/>
+    <col min="2" max="2" width="40.36328125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="16" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="16">
-        <v>1</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="16">
-        <v>2</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="16">
-        <v>3</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" s="16">
-        <v>4</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M2" t="s">
-        <v>75</v>
-      </c>
-      <c r="N2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" t="s">
-        <v>72</v>
-      </c>
-      <c r="P3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="P4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" t="s">
-        <v>76</v>
-      </c>
-      <c r="N5" t="s">
-        <v>71</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q5" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" t="s">
-        <v>75</v>
-      </c>
-      <c r="G34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="19" t="str">
-        <f>CONCATENATE(B2,"_",C2,"_",D2,"_",E2)</f>
-        <v xml:space="preserve">Study1_pilot_expert_glasses </v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>1</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="19" t="str">
-        <f>CONCATENATE(B3,"_",C3,"_",D3,"_",E3)</f>
-        <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
-        <v>1</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="19" t="str">
-        <f>CONCATENATE(B4,"_",C4,"_",D4,"_",E4)</f>
-        <v>Study1_pilot_expert_cam2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <v>1</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="19" t="str">
-        <f>CONCATENATE(B5,"_",C5,"_",D5,"_",E5)</f>
-        <v>Study1_pilot_expert_cam3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
-        <v>1</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="19" t="str">
-        <f>CONCATENATE(B6,"_",C6,"_",D6,"_",E6)</f>
-        <v>Study1_pilot_expert_cam4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <v>1</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="19" t="str">
-        <f>CONCATENATE(B7,"_",C7,"_",D7,"_",E7)</f>
-        <v xml:space="preserve">Study1_pilot_expert_ambient </v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
-        <v>2</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="26" t="str">
-        <f>CONCATENATE(B8,"_",C8,"_",D8,"_",E8)</f>
-        <v xml:space="preserve">Study1_pilot_expert_glasses </v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="26">
-        <v>2</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="26" t="str">
-        <f t="shared" ref="F9:F25" si="0">CONCATENATE(B9,"_",C9,"_",D9,"_",E9)</f>
-        <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
-        <v>2</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Study1_pilot_expert_cam2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="26">
-        <v>2</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Study1_pilot_expert_cam3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
-        <v>2</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v>Study1_pilot_expert_cam4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
-        <v>2</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" s="26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Study2_pilot_expert_ambient </v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
-        <v>3</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Study1_pilot_expert_glasses </v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
-        <v>3</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
-        <v>3</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>Study1_pilot_expert_cam2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
-        <v>3</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>Study1_pilot_expert_cam3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
-        <v>3</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>Study1_pilot_expert_cam4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
-        <v>3</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Study1_pilot_expert_ambient </v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
-        <v>4</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Study1_pilot_expert_glasses </v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
-        <v>4</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Study1_pilot_expert_cam1 </v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
-        <v>4</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>Study1_pilot_expert_cam2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
-        <v>4</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>Study1_pilot_expert_cam3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
-        <v>4</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>Study1_pilot_expert_cam4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
-        <v>4</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Study1_pilot_expert_ambient </v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
-        <v>1</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="19" t="str">
-        <f>CONCATENATE(B27,"_",C27,"_",D27,"_",E27)</f>
-        <v xml:space="preserve">Study1_pilot_novice_glasses </v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
-        <v>1</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="19" t="str">
-        <f>CONCATENATE(B28,"_",C28,"_",D28,"_",E28)</f>
-        <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
-        <v>1</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="19" t="str">
-        <f>CONCATENATE(B29,"_",C29,"_",D29,"_",E29)</f>
-        <v>Study1_pilot_novice_cam2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
-        <v>1</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="19" t="str">
-        <f>CONCATENATE(B30,"_",C30,"_",D30,"_",E30)</f>
-        <v>Study1_pilot_novice_cam3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
-        <v>1</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="19" t="str">
-        <f>CONCATENATE(B31,"_",C31,"_",D31,"_",E31)</f>
-        <v>Study1_pilot_novice_cam4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
-        <v>1</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F32" s="19" t="str">
-        <f>CONCATENATE(B32,"_",C32,"_",D32,"_",E32)</f>
-        <v xml:space="preserve">Study1_pilot_novice_ambient </v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="26">
-        <v>2</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="26" t="str">
-        <f>CONCATENATE(B33,"_",C33,"_",D33,"_",E33)</f>
-        <v xml:space="preserve">Study1_pilot_novice_glasses </v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="26">
-        <v>2</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="26" t="str">
-        <f t="shared" ref="F34:F50" si="1">CONCATENATE(B34,"_",C34,"_",D34,"_",E34)</f>
-        <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="26">
-        <v>2</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F35" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>Study1_pilot_novice_cam2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="26">
-        <v>2</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="F36" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>Study1_pilot_novice_cam3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="26">
-        <v>2</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v>Study1_pilot_novice_cam4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="26">
-        <v>2</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F38" s="26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Study2_pilot_novice_ambient </v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="21">
-        <v>3</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="F39" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Study1_pilot_novice_glasses </v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="21">
-        <v>3</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="21">
-        <v>3</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>Study1_pilot_novice_cam2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="21">
-        <v>3</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>Study1_pilot_novice_cam3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="21">
-        <v>3</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F43" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v>Study1_pilot_novice_cam4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="21">
-        <v>3</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F44" s="21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Study1_pilot_novice_ambient </v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="27">
-        <v>4</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F45" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Study1_pilot_novice_glasses </v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="27">
-        <v>4</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F46" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Study1_pilot_novice_cam1 </v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="27">
-        <v>4</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F47" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>Study1_pilot_novice_cam2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="27">
-        <v>4</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="F48" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>Study1_pilot_novice_cam3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="27">
-        <v>4</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="F49" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>Study1_pilot_novice_cam4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="27">
-        <v>4</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F50" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Study1_pilot_novice_ambient </v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+    </row>
+    <row r="3" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+    </row>
+    <row r="5" spans="1:3" s="67" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="64"/>
+      <c r="B5" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="66"/>
+    </row>
+    <row r="6" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+    </row>
+    <row r="8" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="42"/>
+      <c r="B8" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="43"/>
+    </row>
+    <row r="9" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+    </row>
+    <row r="11" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+    </row>
+    <row r="12" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+    </row>
+    <row r="14" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="60"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+    </row>
+    <row r="15" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="30"/>
+    </row>
+    <row r="17" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="46"/>
+      <c r="B17" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="47"/>
+    </row>
+    <row r="18" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+    </row>
+    <row r="20" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+    </row>
+    <row r="21" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+    </row>
+    <row r="23" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="60"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+    </row>
+    <row r="24" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="30"/>
+    </row>
+    <row r="26" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="51"/>
+      <c r="B26" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="52"/>
+    </row>
+    <row r="27" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+    </row>
+    <row r="29" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+    </row>
+    <row r="30" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+    </row>
+    <row r="32" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="60"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+    </row>
+    <row r="33" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="30"/>
+    </row>
+    <row r="35" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="33"/>
+      <c r="B35" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" s="34"/>
+    </row>
+    <row r="36" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+    </row>
+    <row r="38" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="33"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+    </row>
+    <row r="39" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+    </row>
+    <row r="41" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="68"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+    </row>
+    <row r="42" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="69" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" s="69" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+    </row>
+    <row r="44" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="62"/>
+      <c r="B44" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" s="63"/>
+    </row>
+    <row r="45" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="60"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+    </row>
+    <row r="46" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="60" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="61" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" s="32" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" s="30"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
